--- a/wortschatz-b2/wortschatz-b2.xlsx
+++ b/wortschatz-b2/wortschatz-b2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="405" windowWidth="14760" windowHeight="7710"/>
@@ -11,7 +11,7 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4288,10 +4288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E659"/>
+  <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4303,7 +4303,7 @@
     <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1308</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>158</v>
       </c>
@@ -4331,11 +4331,14 @@
         <v>75</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(COUNTA(A2)=1,"(+ Pl.)",IF(COUNTA(C2)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E2:E65" si="0">IF(COUNTA(A2)=1,"(+ Pl.)",IF(COUNTA(C2)=1,"(+ präteritum, p. II)",""))</f>
         <v>(+ präteritum, p. II)</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -4346,11 +4349,14 @@
         <v>76</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(COUNTA(A3)=1,"(+ Pl.)",IF(COUNTA(C3)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="0"/>
         <v>(+ präteritum, p. II)</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4364,11 +4370,17 @@
         <v>77</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(COUNTA(A4)=1,"(+ Pl.)",IF(COUNTA(C4)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G4">
+        <v>901</v>
+      </c>
+      <c r="H4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4382,11 +4394,14 @@
         <v>78</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(COUNTA(A5)=1,"(+ Pl.)",IF(COUNTA(C5)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G5">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>163</v>
       </c>
@@ -4394,11 +4409,14 @@
         <v>79</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(COUNTA(A6)=1,"(+ Pl.)",IF(COUNTA(C6)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4412,11 +4430,14 @@
         <v>80</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(COUNTA(A7)=1,"(+ Pl.)",IF(COUNTA(C7)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -4424,11 +4445,14 @@
         <v>81</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(COUNTA(A8)=1,"(+ Pl.)",IF(COUNTA(C8)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4442,11 +4466,14 @@
         <v>82</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(COUNTA(A9)=1,"(+ Pl.)",IF(COUNTA(C9)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -4454,11 +4481,14 @@
         <v>83</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(COUNTA(A10)=1,"(+ Pl.)",IF(COUNTA(C10)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -4466,11 +4496,14 @@
         <v>84</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(COUNTA(A11)=1,"(+ Pl.)",IF(COUNTA(C11)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -4478,11 +4511,14 @@
         <v>85</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(COUNTA(A12)=1,"(+ Pl.)",IF(COUNTA(C12)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -4490,11 +4526,14 @@
         <v>86</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(COUNTA(A13)=1,"(+ Pl.)",IF(COUNTA(C13)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -4502,11 +4541,17 @@
         <v>87</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(COUNTA(A14)=1,"(+ Pl.)",IF(COUNTA(C14)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14">
+        <v>104</v>
+      </c>
+      <c r="H14">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -4514,11 +4559,14 @@
         <v>88</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(COUNTA(A15)=1,"(+ Pl.)",IF(COUNTA(C15)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -4526,11 +4574,14 @@
         <v>89</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(COUNTA(A16)=1,"(+ Pl.)",IF(COUNTA(C16)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>90</v>
       </c>
@@ -4538,11 +4589,14 @@
         <v>91</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(COUNTA(A17)=1,"(+ Pl.)",IF(COUNTA(C17)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -4550,11 +4604,14 @@
         <v>92</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(COUNTA(A18)=1,"(+ Pl.)",IF(COUNTA(C18)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -4562,11 +4619,14 @@
         <v>93</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(COUNTA(A19)=1,"(+ Pl.)",IF(COUNTA(C19)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4580,11 +4640,14 @@
         <v>94</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(COUNTA(A20)=1,"(+ Pl.)",IF(COUNTA(C20)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -4592,11 +4655,14 @@
         <v>95</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(COUNTA(A21)=1,"(+ Pl.)",IF(COUNTA(C21)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4607,11 +4673,17 @@
         <v>96</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(COUNTA(A22)=1,"(+ Pl.)",IF(COUNTA(C22)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G22">
+        <v>402</v>
+      </c>
+      <c r="H22">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>166</v>
       </c>
@@ -4619,11 +4691,11 @@
         <v>97</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(COUNTA(A23)=1,"(+ Pl.)",IF(COUNTA(C23)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -4631,11 +4703,14 @@
         <v>98</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(COUNTA(A24)=1,"(+ Pl.)",IF(COUNTA(C24)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -4646,11 +4721,14 @@
         <v>99</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(COUNTA(A25)=1,"(+ Pl.)",IF(COUNTA(C25)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -4658,11 +4736,14 @@
         <v>100</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(COUNTA(A26)=1,"(+ Pl.)",IF(COUNTA(C26)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -4670,11 +4751,14 @@
         <v>102</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(COUNTA(A27)=1,"(+ Pl.)",IF(COUNTA(C27)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -4682,11 +4766,14 @@
         <v>103</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(COUNTA(A28)=1,"(+ Pl.)",IF(COUNTA(C28)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -4694,11 +4781,14 @@
         <v>104</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(COUNTA(A29)=1,"(+ Pl.)",IF(COUNTA(C29)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -4706,11 +4796,14 @@
         <v>105</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(COUNTA(A30)=1,"(+ Pl.)",IF(COUNTA(C30)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4724,11 +4817,14 @@
         <v>106</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(COUNTA(A31)=1,"(+ Pl.)",IF(COUNTA(C31)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G31">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -4736,11 +4832,14 @@
         <v>107</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(COUNTA(A32)=1,"(+ Pl.)",IF(COUNTA(C32)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -4754,11 +4853,14 @@
         <v>108</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(COUNTA(A33)=1,"(+ Pl.)",IF(COUNTA(C33)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G33">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="B34" t="s">
         <v>29</v>
       </c>
@@ -4766,11 +4868,14 @@
         <v>110</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(COUNTA(A34)=1,"(+ Pl.)",IF(COUNTA(C34)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -4778,11 +4883,14 @@
         <v>111</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(COUNTA(A35)=1,"(+ Pl.)",IF(COUNTA(C35)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -4790,11 +4898,14 @@
         <v>112</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(COUNTA(A36)=1,"(+ Pl.)",IF(COUNTA(C36)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G36">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -4808,11 +4919,14 @@
         <v>113</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(COUNTA(A37)=1,"(+ Pl.)",IF(COUNTA(C37)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G37">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -4826,11 +4940,14 @@
         <v>114</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(COUNTA(A38)=1,"(+ Pl.)",IF(COUNTA(C38)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G38">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39" t="s">
         <v>34</v>
       </c>
@@ -4838,11 +4955,14 @@
         <v>115</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(COUNTA(A39)=1,"(+ Pl.)",IF(COUNTA(C39)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G39">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -4856,11 +4976,14 @@
         <v>116</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(COUNTA(A40)=1,"(+ Pl.)",IF(COUNTA(C40)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G40">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="B41" t="s">
         <v>36</v>
       </c>
@@ -4868,11 +4991,14 @@
         <v>117</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(COUNTA(A41)=1,"(+ Pl.)",IF(COUNTA(C41)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G41">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="B42" t="s">
         <v>37</v>
       </c>
@@ -4880,11 +5006,14 @@
         <v>118</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(COUNTA(A42)=1,"(+ Pl.)",IF(COUNTA(C42)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G42">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -4898,11 +5027,14 @@
         <v>119</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(COUNTA(A43)=1,"(+ Pl.)",IF(COUNTA(C43)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G43">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44" t="s">
         <v>39</v>
       </c>
@@ -4910,11 +5042,14 @@
         <v>120</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(COUNTA(A44)=1,"(+ Pl.)",IF(COUNTA(C44)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G44">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="B45" t="s">
         <v>40</v>
       </c>
@@ -4922,11 +5057,14 @@
         <v>121</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(COUNTA(A45)=1,"(+ Pl.)",IF(COUNTA(C45)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G45">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -4940,11 +5078,14 @@
         <v>122</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(COUNTA(A46)=1,"(+ Pl.)",IF(COUNTA(C46)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G46">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -4958,11 +5099,14 @@
         <v>123</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(COUNTA(A47)=1,"(+ Pl.)",IF(COUNTA(C47)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G47">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -4976,11 +5120,14 @@
         <v>124</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(COUNTA(A48)=1,"(+ Pl.)",IF(COUNTA(C48)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G48">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -4994,11 +5141,14 @@
         <v>125</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(COUNTA(A49)=1,"(+ Pl.)",IF(COUNTA(C49)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="B50" t="s">
         <v>45</v>
       </c>
@@ -5006,11 +5156,14 @@
         <v>126</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(COUNTA(A50)=1,"(+ Pl.)",IF(COUNTA(C50)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G50">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="B51" t="s">
         <v>46</v>
       </c>
@@ -5018,11 +5171,14 @@
         <v>127</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(COUNTA(A51)=1,"(+ Pl.)",IF(COUNTA(C51)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G51">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -5036,11 +5192,14 @@
         <v>128</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(COUNTA(A52)=1,"(+ Pl.)",IF(COUNTA(C52)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G52">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -5054,11 +5213,14 @@
         <v>129</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(COUNTA(A53)=1,"(+ Pl.)",IF(COUNTA(C53)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G53">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="B54" t="s">
         <v>49</v>
       </c>
@@ -5069,11 +5231,17 @@
         <v>130</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(COUNTA(A54)=1,"(+ Pl.)",IF(COUNTA(C54)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="0"/>
         <v>(+ präteritum, p. II)</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <v>401</v>
+      </c>
+      <c r="H54">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5087,11 +5255,17 @@
         <v>131</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(COUNTA(A55)=1,"(+ Pl.)",IF(COUNTA(C55)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G55">
+        <v>401</v>
+      </c>
+      <c r="H55">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -5102,11 +5276,14 @@
         <v>171</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(COUNTA(A56)=1,"(+ Pl.)",IF(COUNTA(C56)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G56">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="B57" t="s">
         <v>52</v>
       </c>
@@ -5114,11 +5291,17 @@
         <v>132</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(COUNTA(A57)=1,"(+ Pl.)",IF(COUNTA(C57)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G57">
+        <v>401</v>
+      </c>
+      <c r="H57">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -5129,11 +5312,14 @@
         <v>133</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(COUNTA(A58)=1,"(+ Pl.)",IF(COUNTA(C58)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G58">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="B59" t="s">
         <v>54</v>
       </c>
@@ -5141,11 +5327,11 @@
         <v>134</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(COUNTA(A59)=1,"(+ Pl.)",IF(COUNTA(C59)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -5156,11 +5342,11 @@
         <v>135</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(COUNTA(A60)=1,"(+ Pl.)",IF(COUNTA(C60)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="B61" t="s">
         <v>56</v>
       </c>
@@ -5168,11 +5354,11 @@
         <v>136</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(COUNTA(A61)=1,"(+ Pl.)",IF(COUNTA(C61)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -5186,11 +5372,14 @@
         <v>137</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(COUNTA(A62)=1,"(+ Pl.)",IF(COUNTA(C62)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+      <c r="G62">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -5204,11 +5393,11 @@
         <v>59</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(COUNTA(A63)=1,"(+ Pl.)",IF(COUNTA(C63)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -5222,11 +5411,11 @@
         <v>138</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(COUNTA(A64)=1,"(+ Pl.)",IF(COUNTA(C64)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -5240,11 +5429,11 @@
         <v>139</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(COUNTA(A65)=1,"(+ Pl.)",IF(COUNTA(C65)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="B66" t="s">
         <v>62</v>
       </c>
@@ -5252,11 +5441,14 @@
         <v>140</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(COUNTA(A66)=1,"(+ Pl.)",IF(COUNTA(C66)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <f t="shared" ref="E66:E129" si="1">IF(COUNTA(A66)=1,"(+ Pl.)",IF(COUNTA(C66)=1,"(+ präteritum, p. II)",""))</f>
+        <v/>
+      </c>
+      <c r="G66">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="B67" t="s">
         <v>63</v>
       </c>
@@ -5264,11 +5456,11 @@
         <v>141</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(COUNTA(A67)=1,"(+ Pl.)",IF(COUNTA(C67)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="B68" t="s">
         <v>64</v>
       </c>
@@ -5276,11 +5468,11 @@
         <v>142</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(COUNTA(A68)=1,"(+ Pl.)",IF(COUNTA(C68)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="B69" t="s">
         <v>65</v>
       </c>
@@ -5288,11 +5480,11 @@
         <v>143</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(COUNTA(A69)=1,"(+ Pl.)",IF(COUNTA(C69)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="B70" t="s">
         <v>172</v>
       </c>
@@ -5300,11 +5492,11 @@
         <v>144</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(COUNTA(A70)=1,"(+ Pl.)",IF(COUNTA(C70)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>66</v>
       </c>
@@ -5312,11 +5504,11 @@
         <v>145</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(COUNTA(A71)=1,"(+ Pl.)",IF(COUNTA(C71)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>67</v>
       </c>
@@ -5324,11 +5516,11 @@
         <v>146</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(COUNTA(A72)=1,"(+ Pl.)",IF(COUNTA(C72)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="B73" t="s">
         <v>147</v>
       </c>
@@ -5336,11 +5528,14 @@
         <v>148</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(COUNTA(A73)=1,"(+ Pl.)",IF(COUNTA(C73)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G73">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>68</v>
       </c>
@@ -5348,11 +5543,11 @@
         <v>149</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(COUNTA(A74)=1,"(+ Pl.)",IF(COUNTA(C74)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>173</v>
       </c>
@@ -5360,11 +5555,11 @@
         <v>150</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(COUNTA(A75)=1,"(+ Pl.)",IF(COUNTA(C75)=1,"(+ präteritum, p. II)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5375,11 +5570,11 @@
         <v>151</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(COUNTA(A76)=1,"(+ Pl.)",IF(COUNTA(C76)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -5390,11 +5585,11 @@
         <v>153</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(COUNTA(A77)=1,"(+ Pl.)",IF(COUNTA(C77)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -5408,11 +5603,11 @@
         <v>152</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(COUNTA(A78)=1,"(+ Pl.)",IF(COUNTA(C78)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -5423,11 +5618,11 @@
         <v>154</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(COUNTA(A79)=1,"(+ Pl.)",IF(COUNTA(C79)=1,"(+ präteritum, p. II)",""))</f>
-        <v>(+ Pl.)</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>(+ Pl.)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="B80" t="s">
         <v>73</v>
       </c>
@@ -5435,7 +5630,7 @@
         <v>155</v>
       </c>
       <c r="E80" t="str">
-        <f>IF(COUNTA(A80)=1,"(+ Pl.)",IF(COUNTA(C80)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5447,7 +5642,7 @@
         <v>156</v>
       </c>
       <c r="E81" t="str">
-        <f>IF(COUNTA(A81)=1,"(+ Pl.)",IF(COUNTA(C81)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5465,7 +5660,7 @@
         <v>157</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(COUNTA(A82)=1,"(+ Pl.)",IF(COUNTA(C82)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5477,7 +5672,7 @@
         <v>182</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(COUNTA(A83)=1,"(+ Pl.)",IF(COUNTA(C83)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5489,7 +5684,7 @@
         <v>184</v>
       </c>
       <c r="E84" t="str">
-        <f>IF(COUNTA(A84)=1,"(+ Pl.)",IF(COUNTA(C84)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5501,7 +5696,7 @@
         <v>186</v>
       </c>
       <c r="E85" t="str">
-        <f>IF(COUNTA(A85)=1,"(+ Pl.)",IF(COUNTA(C85)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5513,7 +5708,7 @@
         <v>188</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(COUNTA(A86)=1,"(+ Pl.)",IF(COUNTA(C86)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5525,7 +5720,7 @@
         <v>190</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(COUNTA(A87)=1,"(+ Pl.)",IF(COUNTA(C87)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5543,7 +5738,7 @@
         <v>192</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(COUNTA(A88)=1,"(+ Pl.)",IF(COUNTA(C88)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5558,7 +5753,7 @@
         <v>194</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(COUNTA(A89)=1,"(+ Pl.)",IF(COUNTA(C89)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5570,7 +5765,7 @@
         <v>196</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(COUNTA(A90)=1,"(+ Pl.)",IF(COUNTA(C90)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5582,7 +5777,7 @@
         <v>198</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(COUNTA(A91)=1,"(+ Pl.)",IF(COUNTA(C91)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5594,7 +5789,7 @@
         <v>200</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(COUNTA(A92)=1,"(+ Pl.)",IF(COUNTA(C92)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5606,7 +5801,7 @@
         <v>202</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(COUNTA(A93)=1,"(+ Pl.)",IF(COUNTA(C93)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5618,7 +5813,7 @@
         <v>204</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(COUNTA(A94)=1,"(+ Pl.)",IF(COUNTA(C94)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5630,7 +5825,7 @@
         <v>206</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(COUNTA(A95)=1,"(+ Pl.)",IF(COUNTA(C95)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5648,7 +5843,7 @@
         <v>208</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(COUNTA(A96)=1,"(+ Pl.)",IF(COUNTA(C96)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5660,7 +5855,7 @@
         <v>210</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(COUNTA(A97)=1,"(+ Pl.)",IF(COUNTA(C97)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5672,7 +5867,7 @@
         <v>212</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(COUNTA(A98)=1,"(+ Pl.)",IF(COUNTA(C98)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5684,7 +5879,7 @@
         <v>214</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(COUNTA(A99)=1,"(+ Pl.)",IF(COUNTA(C99)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5696,7 +5891,7 @@
         <v>216</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(COUNTA(A100)=1,"(+ Pl.)",IF(COUNTA(C100)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5708,7 +5903,7 @@
         <v>218</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(COUNTA(A101)=1,"(+ Pl.)",IF(COUNTA(C101)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5720,7 +5915,7 @@
         <v>220</v>
       </c>
       <c r="E102" t="str">
-        <f>IF(COUNTA(A102)=1,"(+ Pl.)",IF(COUNTA(C102)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5732,7 +5927,7 @@
         <v>222</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(COUNTA(A103)=1,"(+ Pl.)",IF(COUNTA(C103)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5744,7 +5939,7 @@
         <v>224</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(COUNTA(A104)=1,"(+ Pl.)",IF(COUNTA(C104)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5762,7 +5957,7 @@
         <v>226</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(COUNTA(A105)=1,"(+ Pl.)",IF(COUNTA(C105)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5780,7 +5975,7 @@
         <v>228</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(COUNTA(A106)=1,"(+ Pl.)",IF(COUNTA(C106)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5792,7 +5987,7 @@
         <v>230</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(COUNTA(A107)=1,"(+ Pl.)",IF(COUNTA(C107)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5810,7 +6005,7 @@
         <v>232</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(COUNTA(A108)=1,"(+ Pl.)",IF(COUNTA(C108)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5828,7 +6023,7 @@
         <v>234</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(COUNTA(A109)=1,"(+ Pl.)",IF(COUNTA(C109)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5840,7 +6035,7 @@
         <v>236</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(COUNTA(A110)=1,"(+ Pl.)",IF(COUNTA(C110)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5852,7 +6047,7 @@
         <v>238</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(COUNTA(A111)=1,"(+ Pl.)",IF(COUNTA(C111)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5864,7 +6059,7 @@
         <v>240</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(COUNTA(A112)=1,"(+ Pl.)",IF(COUNTA(C112)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5882,7 +6077,7 @@
         <v>242</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(COUNTA(A113)=1,"(+ Pl.)",IF(COUNTA(C113)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5894,7 +6089,7 @@
         <v>244</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(COUNTA(A114)=1,"(+ Pl.)",IF(COUNTA(C114)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5906,7 +6101,7 @@
         <v>246</v>
       </c>
       <c r="E115" t="str">
-        <f>IF(COUNTA(A115)=1,"(+ Pl.)",IF(COUNTA(C115)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5924,7 +6119,7 @@
         <v>248</v>
       </c>
       <c r="E116" t="str">
-        <f>IF(COUNTA(A116)=1,"(+ Pl.)",IF(COUNTA(C116)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5942,7 +6137,7 @@
         <v>128</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(COUNTA(A117)=1,"(+ Pl.)",IF(COUNTA(C117)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5960,7 +6155,7 @@
         <v>251</v>
       </c>
       <c r="E118" t="str">
-        <f>IF(COUNTA(A118)=1,"(+ Pl.)",IF(COUNTA(C118)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5978,7 +6173,7 @@
         <v>253</v>
       </c>
       <c r="E119" t="str">
-        <f>IF(COUNTA(A119)=1,"(+ Pl.)",IF(COUNTA(C119)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -5990,7 +6185,7 @@
         <v>255</v>
       </c>
       <c r="E120" t="str">
-        <f>IF(COUNTA(A120)=1,"(+ Pl.)",IF(COUNTA(C120)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6002,7 +6197,7 @@
         <v>257</v>
       </c>
       <c r="E121" t="str">
-        <f>IF(COUNTA(A121)=1,"(+ Pl.)",IF(COUNTA(C121)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6014,7 +6209,7 @@
         <v>259</v>
       </c>
       <c r="E122" t="str">
-        <f>IF(COUNTA(A122)=1,"(+ Pl.)",IF(COUNTA(C122)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6029,7 +6224,7 @@
         <v>261</v>
       </c>
       <c r="E123" t="str">
-        <f>IF(COUNTA(A123)=1,"(+ Pl.)",IF(COUNTA(C123)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6047,7 +6242,7 @@
         <v>263</v>
       </c>
       <c r="E124" t="str">
-        <f>IF(COUNTA(A124)=1,"(+ Pl.)",IF(COUNTA(C124)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6059,7 +6254,7 @@
         <v>265</v>
       </c>
       <c r="E125" t="str">
-        <f>IF(COUNTA(A125)=1,"(+ Pl.)",IF(COUNTA(C125)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6077,7 +6272,7 @@
         <v>267</v>
       </c>
       <c r="E126" t="str">
-        <f>IF(COUNTA(A126)=1,"(+ Pl.)",IF(COUNTA(C126)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6089,7 +6284,7 @@
         <v>269</v>
       </c>
       <c r="E127" t="str">
-        <f>IF(COUNTA(A127)=1,"(+ Pl.)",IF(COUNTA(C127)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6104,7 +6299,7 @@
         <v>271</v>
       </c>
       <c r="E128" t="str">
-        <f>IF(COUNTA(A128)=1,"(+ Pl.)",IF(COUNTA(C128)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6116,7 +6311,7 @@
         <v>273</v>
       </c>
       <c r="E129" t="str">
-        <f>IF(COUNTA(A129)=1,"(+ Pl.)",IF(COUNTA(C129)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6128,7 +6323,7 @@
         <v>275</v>
       </c>
       <c r="E130" t="str">
-        <f>IF(COUNTA(A130)=1,"(+ Pl.)",IF(COUNTA(C130)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E130:E193" si="2">IF(COUNTA(A130)=1,"(+ Pl.)",IF(COUNTA(C130)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -6140,7 +6335,7 @@
         <v>277</v>
       </c>
       <c r="E131" t="str">
-        <f>IF(COUNTA(A131)=1,"(+ Pl.)",IF(COUNTA(C131)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6152,7 +6347,7 @@
         <v>279</v>
       </c>
       <c r="E132" t="str">
-        <f>IF(COUNTA(A132)=1,"(+ Pl.)",IF(COUNTA(C132)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6170,7 +6365,7 @@
         <v>281</v>
       </c>
       <c r="E133" t="str">
-        <f>IF(COUNTA(A133)=1,"(+ Pl.)",IF(COUNTA(C133)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6188,7 +6383,7 @@
         <v>283</v>
       </c>
       <c r="E134" t="str">
-        <f>IF(COUNTA(A134)=1,"(+ Pl.)",IF(COUNTA(C134)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6206,7 +6401,7 @@
         <v>285</v>
       </c>
       <c r="E135" t="str">
-        <f>IF(COUNTA(A135)=1,"(+ Pl.)",IF(COUNTA(C135)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6218,7 +6413,7 @@
         <v>287</v>
       </c>
       <c r="E136" t="str">
-        <f>IF(COUNTA(A136)=1,"(+ Pl.)",IF(COUNTA(C136)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6233,7 +6428,7 @@
         <v>289</v>
       </c>
       <c r="E137" t="str">
-        <f>IF(COUNTA(A137)=1,"(+ Pl.)",IF(COUNTA(C137)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6245,7 +6440,7 @@
         <v>291</v>
       </c>
       <c r="E138" t="str">
-        <f>IF(COUNTA(A138)=1,"(+ Pl.)",IF(COUNTA(C138)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6263,7 +6458,7 @@
         <v>293</v>
       </c>
       <c r="E139" t="str">
-        <f>IF(COUNTA(A139)=1,"(+ Pl.)",IF(COUNTA(C139)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6281,7 +6476,7 @@
         <v>295</v>
       </c>
       <c r="E140" t="str">
-        <f>IF(COUNTA(A140)=1,"(+ Pl.)",IF(COUNTA(C140)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6293,7 +6488,7 @@
         <v>297</v>
       </c>
       <c r="E141" t="str">
-        <f>IF(COUNTA(A141)=1,"(+ Pl.)",IF(COUNTA(C141)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6305,7 +6500,7 @@
         <v>299</v>
       </c>
       <c r="E142" t="str">
-        <f>IF(COUNTA(A142)=1,"(+ Pl.)",IF(COUNTA(C142)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6317,7 +6512,7 @@
         <v>301</v>
       </c>
       <c r="E143" t="str">
-        <f>IF(COUNTA(A143)=1,"(+ Pl.)",IF(COUNTA(C143)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6329,7 +6524,7 @@
         <v>303</v>
       </c>
       <c r="E144" t="str">
-        <f>IF(COUNTA(A144)=1,"(+ Pl.)",IF(COUNTA(C144)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6341,7 +6536,7 @@
         <v>305</v>
       </c>
       <c r="E145" t="str">
-        <f>IF(COUNTA(A145)=1,"(+ Pl.)",IF(COUNTA(C145)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6353,7 +6548,7 @@
         <v>307</v>
       </c>
       <c r="E146" t="str">
-        <f>IF(COUNTA(A146)=1,"(+ Pl.)",IF(COUNTA(C146)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6365,7 +6560,7 @@
         <v>309</v>
       </c>
       <c r="E147" t="str">
-        <f>IF(COUNTA(A147)=1,"(+ Pl.)",IF(COUNTA(C147)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6377,7 +6572,7 @@
         <v>311</v>
       </c>
       <c r="E148" t="str">
-        <f>IF(COUNTA(A148)=1,"(+ Pl.)",IF(COUNTA(C148)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6389,7 +6584,7 @@
         <v>313</v>
       </c>
       <c r="E149" t="str">
-        <f>IF(COUNTA(A149)=1,"(+ Pl.)",IF(COUNTA(C149)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6401,7 +6596,7 @@
         <v>315</v>
       </c>
       <c r="E150" t="str">
-        <f>IF(COUNTA(A150)=1,"(+ Pl.)",IF(COUNTA(C150)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6413,7 +6608,7 @@
         <v>317</v>
       </c>
       <c r="E151" t="str">
-        <f>IF(COUNTA(A151)=1,"(+ Pl.)",IF(COUNTA(C151)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6425,7 +6620,7 @@
         <v>319</v>
       </c>
       <c r="E152" t="str">
-        <f>IF(COUNTA(A152)=1,"(+ Pl.)",IF(COUNTA(C152)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6437,7 +6632,7 @@
         <v>107</v>
       </c>
       <c r="E153" t="str">
-        <f>IF(COUNTA(A153)=1,"(+ Pl.)",IF(COUNTA(C153)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6449,7 +6644,7 @@
         <v>321</v>
       </c>
       <c r="E154" t="str">
-        <f>IF(COUNTA(A154)=1,"(+ Pl.)",IF(COUNTA(C154)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6461,7 +6656,7 @@
         <v>323</v>
       </c>
       <c r="E155" t="str">
-        <f>IF(COUNTA(A155)=1,"(+ Pl.)",IF(COUNTA(C155)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6473,7 +6668,7 @@
         <v>325</v>
       </c>
       <c r="E156" t="str">
-        <f>IF(COUNTA(A156)=1,"(+ Pl.)",IF(COUNTA(C156)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6485,7 +6680,7 @@
         <v>327</v>
       </c>
       <c r="E157" t="str">
-        <f>IF(COUNTA(A157)=1,"(+ Pl.)",IF(COUNTA(C157)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6497,7 +6692,7 @@
         <v>329</v>
       </c>
       <c r="E158" t="str">
-        <f>IF(COUNTA(A158)=1,"(+ Pl.)",IF(COUNTA(C158)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6515,7 +6710,7 @@
         <v>331</v>
       </c>
       <c r="E159" t="str">
-        <f>IF(COUNTA(A159)=1,"(+ Pl.)",IF(COUNTA(C159)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6533,7 +6728,7 @@
         <v>333</v>
       </c>
       <c r="E160" t="str">
-        <f>IF(COUNTA(A160)=1,"(+ Pl.)",IF(COUNTA(C160)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6545,7 +6740,7 @@
         <v>335</v>
       </c>
       <c r="E161" t="str">
-        <f>IF(COUNTA(A161)=1,"(+ Pl.)",IF(COUNTA(C161)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6563,7 +6758,7 @@
         <v>337</v>
       </c>
       <c r="E162" t="str">
-        <f>IF(COUNTA(A162)=1,"(+ Pl.)",IF(COUNTA(C162)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6575,7 +6770,7 @@
         <v>339</v>
       </c>
       <c r="E163" t="str">
-        <f>IF(COUNTA(A163)=1,"(+ Pl.)",IF(COUNTA(C163)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6593,7 +6788,7 @@
         <v>341</v>
       </c>
       <c r="E164" t="str">
-        <f>IF(COUNTA(A164)=1,"(+ Pl.)",IF(COUNTA(C164)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6605,7 +6800,7 @@
         <v>343</v>
       </c>
       <c r="E165" t="str">
-        <f>IF(COUNTA(A165)=1,"(+ Pl.)",IF(COUNTA(C165)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6617,7 +6812,7 @@
         <v>345</v>
       </c>
       <c r="E166" t="str">
-        <f>IF(COUNTA(A166)=1,"(+ Pl.)",IF(COUNTA(C166)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6629,7 +6824,7 @@
         <v>347</v>
       </c>
       <c r="E167" t="str">
-        <f>IF(COUNTA(A167)=1,"(+ Pl.)",IF(COUNTA(C167)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6641,7 +6836,7 @@
         <v>349</v>
       </c>
       <c r="E168" t="str">
-        <f>IF(COUNTA(A168)=1,"(+ Pl.)",IF(COUNTA(C168)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6659,7 +6854,7 @@
         <v>351</v>
       </c>
       <c r="E169" t="str">
-        <f>IF(COUNTA(A169)=1,"(+ Pl.)",IF(COUNTA(C169)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6677,7 +6872,7 @@
         <v>353</v>
       </c>
       <c r="E170" t="str">
-        <f>IF(COUNTA(A170)=1,"(+ Pl.)",IF(COUNTA(C170)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6695,7 +6890,7 @@
         <v>355</v>
       </c>
       <c r="E171" t="str">
-        <f>IF(COUNTA(A171)=1,"(+ Pl.)",IF(COUNTA(C171)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6707,7 +6902,7 @@
         <v>357</v>
       </c>
       <c r="E172" t="str">
-        <f>IF(COUNTA(A172)=1,"(+ Pl.)",IF(COUNTA(C172)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6719,7 +6914,7 @@
         <v>359</v>
       </c>
       <c r="E173" t="str">
-        <f>IF(COUNTA(A173)=1,"(+ Pl.)",IF(COUNTA(C173)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6737,7 +6932,7 @@
         <v>361</v>
       </c>
       <c r="E174" t="str">
-        <f>IF(COUNTA(A174)=1,"(+ Pl.)",IF(COUNTA(C174)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6755,7 +6950,7 @@
         <v>363</v>
       </c>
       <c r="E175" t="str">
-        <f>IF(COUNTA(A175)=1,"(+ Pl.)",IF(COUNTA(C175)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6773,7 +6968,7 @@
         <v>365</v>
       </c>
       <c r="E176" t="str">
-        <f>IF(COUNTA(A176)=1,"(+ Pl.)",IF(COUNTA(C176)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6785,7 +6980,7 @@
         <v>367</v>
       </c>
       <c r="E177" t="str">
-        <f>IF(COUNTA(A177)=1,"(+ Pl.)",IF(COUNTA(C177)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6803,7 +6998,7 @@
         <v>369</v>
       </c>
       <c r="E178" t="str">
-        <f>IF(COUNTA(A178)=1,"(+ Pl.)",IF(COUNTA(C178)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6815,7 +7010,7 @@
         <v>371</v>
       </c>
       <c r="E179" t="str">
-        <f>IF(COUNTA(A179)=1,"(+ Pl.)",IF(COUNTA(C179)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6833,7 +7028,7 @@
         <v>373</v>
       </c>
       <c r="E180" t="str">
-        <f>IF(COUNTA(A180)=1,"(+ Pl.)",IF(COUNTA(C180)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6851,7 +7046,7 @@
         <v>375</v>
       </c>
       <c r="E181" t="str">
-        <f>IF(COUNTA(A181)=1,"(+ Pl.)",IF(COUNTA(C181)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6863,7 +7058,7 @@
         <v>377</v>
       </c>
       <c r="E182" t="str">
-        <f>IF(COUNTA(A182)=1,"(+ Pl.)",IF(COUNTA(C182)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6881,7 +7076,7 @@
         <v>379</v>
       </c>
       <c r="E183" t="str">
-        <f>IF(COUNTA(A183)=1,"(+ Pl.)",IF(COUNTA(C183)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6893,7 +7088,7 @@
         <v>381</v>
       </c>
       <c r="E184" t="str">
-        <f>IF(COUNTA(A184)=1,"(+ Pl.)",IF(COUNTA(C184)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6911,7 +7106,7 @@
         <v>384</v>
       </c>
       <c r="E185" t="str">
-        <f>IF(COUNTA(A185)=1,"(+ Pl.)",IF(COUNTA(C185)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6929,7 +7124,7 @@
         <v>386</v>
       </c>
       <c r="E186" t="str">
-        <f>IF(COUNTA(A186)=1,"(+ Pl.)",IF(COUNTA(C186)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6947,7 +7142,7 @@
         <v>388</v>
       </c>
       <c r="E187" t="str">
-        <f>IF(COUNTA(A187)=1,"(+ Pl.)",IF(COUNTA(C187)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6962,7 +7157,7 @@
         <v>128</v>
       </c>
       <c r="E188" t="str">
-        <f>IF(COUNTA(A188)=1,"(+ Pl.)",IF(COUNTA(C188)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6980,7 +7175,7 @@
         <v>390</v>
       </c>
       <c r="E189" t="str">
-        <f>IF(COUNTA(A189)=1,"(+ Pl.)",IF(COUNTA(C189)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -6992,7 +7187,7 @@
         <v>392</v>
       </c>
       <c r="E190" t="str">
-        <f>IF(COUNTA(A190)=1,"(+ Pl.)",IF(COUNTA(C190)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7010,7 +7205,7 @@
         <v>394</v>
       </c>
       <c r="E191" t="str">
-        <f>IF(COUNTA(A191)=1,"(+ Pl.)",IF(COUNTA(C191)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7028,7 +7223,7 @@
         <v>396</v>
       </c>
       <c r="E192" t="str">
-        <f>IF(COUNTA(A192)=1,"(+ Pl.)",IF(COUNTA(C192)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7046,7 +7241,7 @@
         <v>398</v>
       </c>
       <c r="E193" t="str">
-        <f>IF(COUNTA(A193)=1,"(+ Pl.)",IF(COUNTA(C193)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="2"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7058,7 +7253,7 @@
         <v>400</v>
       </c>
       <c r="E194" t="str">
-        <f>IF(COUNTA(A194)=1,"(+ Pl.)",IF(COUNTA(C194)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E194:E257" si="3">IF(COUNTA(A194)=1,"(+ Pl.)",IF(COUNTA(C194)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -7070,7 +7265,7 @@
         <v>402</v>
       </c>
       <c r="E195" t="str">
-        <f>IF(COUNTA(A195)=1,"(+ Pl.)",IF(COUNTA(C195)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7082,7 +7277,7 @@
         <v>404</v>
       </c>
       <c r="E196" t="str">
-        <f>IF(COUNTA(A196)=1,"(+ Pl.)",IF(COUNTA(C196)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7094,7 +7289,7 @@
         <v>406</v>
       </c>
       <c r="E197" t="str">
-        <f>IF(COUNTA(A197)=1,"(+ Pl.)",IF(COUNTA(C197)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7109,7 +7304,7 @@
         <v>408</v>
       </c>
       <c r="E198" t="str">
-        <f>IF(COUNTA(A198)=1,"(+ Pl.)",IF(COUNTA(C198)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7121,7 +7316,7 @@
         <v>410</v>
       </c>
       <c r="E199" t="str">
-        <f>IF(COUNTA(A199)=1,"(+ Pl.)",IF(COUNTA(C199)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7133,7 +7328,7 @@
         <v>412</v>
       </c>
       <c r="E200" t="str">
-        <f>IF(COUNTA(A200)=1,"(+ Pl.)",IF(COUNTA(C200)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7148,7 +7343,7 @@
         <v>339</v>
       </c>
       <c r="E201" t="str">
-        <f>IF(COUNTA(A201)=1,"(+ Pl.)",IF(COUNTA(C201)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -7166,7 +7361,7 @@
         <v>415</v>
       </c>
       <c r="E202" t="str">
-        <f>IF(COUNTA(A202)=1,"(+ Pl.)",IF(COUNTA(C202)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7181,7 +7376,7 @@
         <v>418</v>
       </c>
       <c r="E203" t="str">
-        <f>IF(COUNTA(A203)=1,"(+ Pl.)",IF(COUNTA(C203)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -7199,7 +7394,7 @@
         <v>420</v>
       </c>
       <c r="E204" t="str">
-        <f>IF(COUNTA(A204)=1,"(+ Pl.)",IF(COUNTA(C204)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7211,7 +7406,7 @@
         <v>422</v>
       </c>
       <c r="E205" t="str">
-        <f>IF(COUNTA(A205)=1,"(+ Pl.)",IF(COUNTA(C205)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7223,7 +7418,7 @@
         <v>424</v>
       </c>
       <c r="E206" t="str">
-        <f>IF(COUNTA(A206)=1,"(+ Pl.)",IF(COUNTA(C206)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7235,7 +7430,7 @@
         <v>426</v>
       </c>
       <c r="E207" t="str">
-        <f>IF(COUNTA(A207)=1,"(+ Pl.)",IF(COUNTA(C207)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7247,7 +7442,7 @@
         <v>428</v>
       </c>
       <c r="E208" t="str">
-        <f>IF(COUNTA(A208)=1,"(+ Pl.)",IF(COUNTA(C208)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7265,7 +7460,7 @@
         <v>430</v>
       </c>
       <c r="E209" t="str">
-        <f>IF(COUNTA(A209)=1,"(+ Pl.)",IF(COUNTA(C209)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7283,7 +7478,7 @@
         <v>432</v>
       </c>
       <c r="E210" t="str">
-        <f>IF(COUNTA(A210)=1,"(+ Pl.)",IF(COUNTA(C210)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7298,7 +7493,7 @@
         <v>434</v>
       </c>
       <c r="E211" t="str">
-        <f>IF(COUNTA(A211)=1,"(+ Pl.)",IF(COUNTA(C211)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7310,7 +7505,7 @@
         <v>436</v>
       </c>
       <c r="E212" t="str">
-        <f>IF(COUNTA(A212)=1,"(+ Pl.)",IF(COUNTA(C212)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7322,7 +7517,7 @@
         <v>438</v>
       </c>
       <c r="E213" t="str">
-        <f>IF(COUNTA(A213)=1,"(+ Pl.)",IF(COUNTA(C213)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7340,7 +7535,7 @@
         <v>440</v>
       </c>
       <c r="E214" t="str">
-        <f>IF(COUNTA(A214)=1,"(+ Pl.)",IF(COUNTA(C214)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7352,7 +7547,7 @@
         <v>442</v>
       </c>
       <c r="E215" t="str">
-        <f>IF(COUNTA(A215)=1,"(+ Pl.)",IF(COUNTA(C215)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7364,7 +7559,7 @@
         <v>444</v>
       </c>
       <c r="E216" t="str">
-        <f>IF(COUNTA(A216)=1,"(+ Pl.)",IF(COUNTA(C216)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7376,7 +7571,7 @@
         <v>446</v>
       </c>
       <c r="E217" t="str">
-        <f>IF(COUNTA(A217)=1,"(+ Pl.)",IF(COUNTA(C217)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7394,7 +7589,7 @@
         <v>448</v>
       </c>
       <c r="E218" t="str">
-        <f>IF(COUNTA(A218)=1,"(+ Pl.)",IF(COUNTA(C218)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7406,7 +7601,7 @@
         <v>450</v>
       </c>
       <c r="E219" t="str">
-        <f>IF(COUNTA(A219)=1,"(+ Pl.)",IF(COUNTA(C219)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7418,7 +7613,7 @@
         <v>452</v>
       </c>
       <c r="E220" t="str">
-        <f>IF(COUNTA(A220)=1,"(+ Pl.)",IF(COUNTA(C220)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7430,7 +7625,7 @@
         <v>454</v>
       </c>
       <c r="E221" t="str">
-        <f>IF(COUNTA(A221)=1,"(+ Pl.)",IF(COUNTA(C221)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7445,7 +7640,7 @@
         <v>456</v>
       </c>
       <c r="E222" t="str">
-        <f>IF(COUNTA(A222)=1,"(+ Pl.)",IF(COUNTA(C222)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7457,7 +7652,7 @@
         <v>458</v>
       </c>
       <c r="E223" t="str">
-        <f>IF(COUNTA(A223)=1,"(+ Pl.)",IF(COUNTA(C223)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7469,7 +7664,7 @@
         <v>460</v>
       </c>
       <c r="E224" t="str">
-        <f>IF(COUNTA(A224)=1,"(+ Pl.)",IF(COUNTA(C224)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7487,7 +7682,7 @@
         <v>462</v>
       </c>
       <c r="E225" t="str">
-        <f>IF(COUNTA(A225)=1,"(+ Pl.)",IF(COUNTA(C225)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7499,7 +7694,7 @@
         <v>464</v>
       </c>
       <c r="E226" t="str">
-        <f>IF(COUNTA(A226)=1,"(+ Pl.)",IF(COUNTA(C226)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7511,7 +7706,7 @@
         <v>466</v>
       </c>
       <c r="E227" t="str">
-        <f>IF(COUNTA(A227)=1,"(+ Pl.)",IF(COUNTA(C227)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7523,7 +7718,7 @@
         <v>468</v>
       </c>
       <c r="E228" t="str">
-        <f>IF(COUNTA(A228)=1,"(+ Pl.)",IF(COUNTA(C228)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7535,7 +7730,7 @@
         <v>470</v>
       </c>
       <c r="E229" t="str">
-        <f>IF(COUNTA(A229)=1,"(+ Pl.)",IF(COUNTA(C229)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7553,7 +7748,7 @@
         <v>472</v>
       </c>
       <c r="E230" t="str">
-        <f>IF(COUNTA(A230)=1,"(+ Pl.)",IF(COUNTA(C230)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7565,7 +7760,7 @@
         <v>474</v>
       </c>
       <c r="E231" t="str">
-        <f>IF(COUNTA(A231)=1,"(+ Pl.)",IF(COUNTA(C231)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7577,7 +7772,7 @@
         <v>476</v>
       </c>
       <c r="E232" t="str">
-        <f>IF(COUNTA(A232)=1,"(+ Pl.)",IF(COUNTA(C232)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7589,7 +7784,7 @@
         <v>478</v>
       </c>
       <c r="E233" t="str">
-        <f>IF(COUNTA(A233)=1,"(+ Pl.)",IF(COUNTA(C233)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7607,7 +7802,7 @@
         <v>480</v>
       </c>
       <c r="E234" t="str">
-        <f>IF(COUNTA(A234)=1,"(+ Pl.)",IF(COUNTA(C234)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7619,7 +7814,7 @@
         <v>482</v>
       </c>
       <c r="E235" t="str">
-        <f>IF(COUNTA(A235)=1,"(+ Pl.)",IF(COUNTA(C235)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7637,7 +7832,7 @@
         <v>484</v>
       </c>
       <c r="E236" t="str">
-        <f>IF(COUNTA(A236)=1,"(+ Pl.)",IF(COUNTA(C236)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7649,7 +7844,7 @@
         <v>486</v>
       </c>
       <c r="E237" t="str">
-        <f>IF(COUNTA(A237)=1,"(+ Pl.)",IF(COUNTA(C237)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7664,7 +7859,7 @@
         <v>489</v>
       </c>
       <c r="E238" t="str">
-        <f>IF(COUNTA(A238)=1,"(+ Pl.)",IF(COUNTA(C238)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -7679,7 +7874,7 @@
         <v>491</v>
       </c>
       <c r="E239" t="str">
-        <f>IF(COUNTA(A239)=1,"(+ Pl.)",IF(COUNTA(C239)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7691,7 +7886,7 @@
         <v>493</v>
       </c>
       <c r="E240" t="str">
-        <f>IF(COUNTA(A240)=1,"(+ Pl.)",IF(COUNTA(C240)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7703,7 +7898,7 @@
         <v>495</v>
       </c>
       <c r="E241" t="str">
-        <f>IF(COUNTA(A241)=1,"(+ Pl.)",IF(COUNTA(C241)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7715,7 +7910,7 @@
         <v>497</v>
       </c>
       <c r="E242" t="str">
-        <f>IF(COUNTA(A242)=1,"(+ Pl.)",IF(COUNTA(C242)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7727,7 +7922,7 @@
         <v>499</v>
       </c>
       <c r="E243" t="str">
-        <f>IF(COUNTA(A243)=1,"(+ Pl.)",IF(COUNTA(C243)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7745,7 +7940,7 @@
         <v>501</v>
       </c>
       <c r="E244" t="str">
-        <f>IF(COUNTA(A244)=1,"(+ Pl.)",IF(COUNTA(C244)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7757,7 +7952,7 @@
         <v>503</v>
       </c>
       <c r="E245" t="str">
-        <f>IF(COUNTA(A245)=1,"(+ Pl.)",IF(COUNTA(C245)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7769,7 +7964,7 @@
         <v>505</v>
       </c>
       <c r="E246" t="str">
-        <f>IF(COUNTA(A246)=1,"(+ Pl.)",IF(COUNTA(C246)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7781,7 +7976,7 @@
         <v>507</v>
       </c>
       <c r="E247" t="str">
-        <f>IF(COUNTA(A247)=1,"(+ Pl.)",IF(COUNTA(C247)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7793,7 +7988,7 @@
         <v>509</v>
       </c>
       <c r="E248" t="str">
-        <f>IF(COUNTA(A248)=1,"(+ Pl.)",IF(COUNTA(C248)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7805,7 +8000,7 @@
         <v>511</v>
       </c>
       <c r="E249" t="str">
-        <f>IF(COUNTA(A249)=1,"(+ Pl.)",IF(COUNTA(C249)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7820,7 +8015,7 @@
         <v>513</v>
       </c>
       <c r="E250" t="str">
-        <f>IF(COUNTA(A250)=1,"(+ Pl.)",IF(COUNTA(C250)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7832,7 +8027,7 @@
         <v>515</v>
       </c>
       <c r="E251" t="str">
-        <f>IF(COUNTA(A251)=1,"(+ Pl.)",IF(COUNTA(C251)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7850,7 +8045,7 @@
         <v>517</v>
       </c>
       <c r="E252" t="str">
-        <f>IF(COUNTA(A252)=1,"(+ Pl.)",IF(COUNTA(C252)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7868,7 +8063,7 @@
         <v>519</v>
       </c>
       <c r="E253" t="str">
-        <f>IF(COUNTA(A253)=1,"(+ Pl.)",IF(COUNTA(C253)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7880,7 +8075,7 @@
         <v>521</v>
       </c>
       <c r="E254" t="str">
-        <f>IF(COUNTA(A254)=1,"(+ Pl.)",IF(COUNTA(C254)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7892,7 +8087,7 @@
         <v>523</v>
       </c>
       <c r="E255" t="str">
-        <f>IF(COUNTA(A255)=1,"(+ Pl.)",IF(COUNTA(C255)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7907,7 +8102,7 @@
         <v>525</v>
       </c>
       <c r="E256" t="str">
-        <f>IF(COUNTA(A256)=1,"(+ Pl.)",IF(COUNTA(C256)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7919,7 +8114,7 @@
         <v>527</v>
       </c>
       <c r="E257" t="str">
-        <f>IF(COUNTA(A257)=1,"(+ Pl.)",IF(COUNTA(C257)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7931,7 +8126,7 @@
         <v>529</v>
       </c>
       <c r="E258" t="str">
-        <f>IF(COUNTA(A258)=1,"(+ Pl.)",IF(COUNTA(C258)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E258:E321" si="4">IF(COUNTA(A258)=1,"(+ Pl.)",IF(COUNTA(C258)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -7943,7 +8138,7 @@
         <v>531</v>
       </c>
       <c r="E259" t="str">
-        <f>IF(COUNTA(A259)=1,"(+ Pl.)",IF(COUNTA(C259)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7958,7 +8153,7 @@
         <v>533</v>
       </c>
       <c r="E260" t="str">
-        <f>IF(COUNTA(A260)=1,"(+ Pl.)",IF(COUNTA(C260)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7973,7 +8168,7 @@
         <v>535</v>
       </c>
       <c r="E261" t="str">
-        <f>IF(COUNTA(A261)=1,"(+ Pl.)",IF(COUNTA(C261)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -7985,7 +8180,7 @@
         <v>537</v>
       </c>
       <c r="E262" t="str">
-        <f>IF(COUNTA(A262)=1,"(+ Pl.)",IF(COUNTA(C262)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8003,7 +8198,7 @@
         <v>540</v>
       </c>
       <c r="E263" t="str">
-        <f>IF(COUNTA(A263)=1,"(+ Pl.)",IF(COUNTA(C263)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8021,7 +8216,7 @@
         <v>542</v>
       </c>
       <c r="E264" t="str">
-        <f>IF(COUNTA(A264)=1,"(+ Pl.)",IF(COUNTA(C264)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8033,7 +8228,7 @@
         <v>544</v>
       </c>
       <c r="E265" t="str">
-        <f>IF(COUNTA(A265)=1,"(+ Pl.)",IF(COUNTA(C265)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8045,7 +8240,7 @@
         <v>546</v>
       </c>
       <c r="E266" t="str">
-        <f>IF(COUNTA(A266)=1,"(+ Pl.)",IF(COUNTA(C266)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8057,7 +8252,7 @@
         <v>548</v>
       </c>
       <c r="E267" t="str">
-        <f>IF(COUNTA(A267)=1,"(+ Pl.)",IF(COUNTA(C267)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8072,7 +8267,7 @@
         <v>550</v>
       </c>
       <c r="E268" t="str">
-        <f>IF(COUNTA(A268)=1,"(+ Pl.)",IF(COUNTA(C268)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8084,7 +8279,7 @@
         <v>552</v>
       </c>
       <c r="E269" t="str">
-        <f>IF(COUNTA(A269)=1,"(+ Pl.)",IF(COUNTA(C269)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8102,7 +8297,7 @@
         <v>554</v>
       </c>
       <c r="E270" t="str">
-        <f>IF(COUNTA(A270)=1,"(+ Pl.)",IF(COUNTA(C270)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8114,7 +8309,7 @@
         <v>556</v>
       </c>
       <c r="E271" t="str">
-        <f>IF(COUNTA(A271)=1,"(+ Pl.)",IF(COUNTA(C271)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8126,7 +8321,7 @@
         <v>558</v>
       </c>
       <c r="E272" t="str">
-        <f>IF(COUNTA(A272)=1,"(+ Pl.)",IF(COUNTA(C272)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8138,7 +8333,7 @@
         <v>560</v>
       </c>
       <c r="E273" t="str">
-        <f>IF(COUNTA(A273)=1,"(+ Pl.)",IF(COUNTA(C273)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8156,7 +8351,7 @@
         <v>562</v>
       </c>
       <c r="E274" t="str">
-        <f>IF(COUNTA(A274)=1,"(+ Pl.)",IF(COUNTA(C274)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8174,7 +8369,7 @@
         <v>564</v>
       </c>
       <c r="E275" t="str">
-        <f>IF(COUNTA(A275)=1,"(+ Pl.)",IF(COUNTA(C275)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8192,7 +8387,7 @@
         <v>566</v>
       </c>
       <c r="E276" t="str">
-        <f>IF(COUNTA(A276)=1,"(+ Pl.)",IF(COUNTA(C276)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8204,7 +8399,7 @@
         <v>568</v>
       </c>
       <c r="E277" t="str">
-        <f>IF(COUNTA(A277)=1,"(+ Pl.)",IF(COUNTA(C277)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8216,7 +8411,7 @@
         <v>570</v>
       </c>
       <c r="E278" t="str">
-        <f>IF(COUNTA(A278)=1,"(+ Pl.)",IF(COUNTA(C278)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8228,7 +8423,7 @@
         <v>572</v>
       </c>
       <c r="E279" t="str">
-        <f>IF(COUNTA(A279)=1,"(+ Pl.)",IF(COUNTA(C279)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8240,7 +8435,7 @@
         <v>574</v>
       </c>
       <c r="E280" t="str">
-        <f>IF(COUNTA(A280)=1,"(+ Pl.)",IF(COUNTA(C280)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8252,7 +8447,7 @@
         <v>572</v>
       </c>
       <c r="E281" t="str">
-        <f>IF(COUNTA(A281)=1,"(+ Pl.)",IF(COUNTA(C281)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8267,7 +8462,7 @@
         <v>578</v>
       </c>
       <c r="E282" t="str">
-        <f>IF(COUNTA(A282)=1,"(+ Pl.)",IF(COUNTA(C282)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -8279,7 +8474,7 @@
         <v>580</v>
       </c>
       <c r="E283" t="str">
-        <f>IF(COUNTA(A283)=1,"(+ Pl.)",IF(COUNTA(C283)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8291,7 +8486,7 @@
         <v>582</v>
       </c>
       <c r="E284" t="str">
-        <f>IF(COUNTA(A284)=1,"(+ Pl.)",IF(COUNTA(C284)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8303,7 +8498,7 @@
         <v>584</v>
       </c>
       <c r="E285" t="str">
-        <f>IF(COUNTA(A285)=1,"(+ Pl.)",IF(COUNTA(C285)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8315,7 +8510,7 @@
         <v>586</v>
       </c>
       <c r="E286" t="str">
-        <f>IF(COUNTA(A286)=1,"(+ Pl.)",IF(COUNTA(C286)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8327,7 +8522,7 @@
         <v>588</v>
       </c>
       <c r="E287" t="str">
-        <f>IF(COUNTA(A287)=1,"(+ Pl.)",IF(COUNTA(C287)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8339,7 +8534,7 @@
         <v>590</v>
       </c>
       <c r="E288" t="str">
-        <f>IF(COUNTA(A288)=1,"(+ Pl.)",IF(COUNTA(C288)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8352,7 +8547,7 @@
         <v>592</v>
       </c>
       <c r="E289" t="str">
-        <f>IF(COUNTA(A289)=1,"(+ Pl.)",IF(COUNTA(C289)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8370,7 +8565,7 @@
         <v>594</v>
       </c>
       <c r="E290" t="str">
-        <f>IF(COUNTA(A290)=1,"(+ Pl.)",IF(COUNTA(C290)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8388,7 +8583,7 @@
         <v>596</v>
       </c>
       <c r="E291" t="str">
-        <f>IF(COUNTA(A291)=1,"(+ Pl.)",IF(COUNTA(C291)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8401,7 +8596,7 @@
         <v>598</v>
       </c>
       <c r="E292" t="str">
-        <f>IF(COUNTA(A292)=1,"(+ Pl.)",IF(COUNTA(C292)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8419,7 +8614,7 @@
         <v>600</v>
       </c>
       <c r="E293" t="str">
-        <f>IF(COUNTA(A293)=1,"(+ Pl.)",IF(COUNTA(C293)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8434,7 +8629,7 @@
         <v>602</v>
       </c>
       <c r="E294" t="str">
-        <f>IF(COUNTA(A294)=1,"(+ Pl.)",IF(COUNTA(C294)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8449,7 +8644,7 @@
         <v>604</v>
       </c>
       <c r="E295" t="str">
-        <f>IF(COUNTA(A295)=1,"(+ Pl.)",IF(COUNTA(C295)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8464,7 +8659,7 @@
         <v>606</v>
       </c>
       <c r="E296" t="str">
-        <f>IF(COUNTA(A296)=1,"(+ Pl.)",IF(COUNTA(C296)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8476,7 +8671,7 @@
         <v>608</v>
       </c>
       <c r="E297" t="str">
-        <f>IF(COUNTA(A297)=1,"(+ Pl.)",IF(COUNTA(C297)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8488,7 +8683,7 @@
         <v>610</v>
       </c>
       <c r="E298" t="str">
-        <f>IF(COUNTA(A298)=1,"(+ Pl.)",IF(COUNTA(C298)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8506,7 +8701,7 @@
         <v>612</v>
       </c>
       <c r="E299" t="str">
-        <f>IF(COUNTA(A299)=1,"(+ Pl.)",IF(COUNTA(C299)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8518,7 +8713,7 @@
         <v>614</v>
       </c>
       <c r="E300" t="str">
-        <f>IF(COUNTA(A300)=1,"(+ Pl.)",IF(COUNTA(C300)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8530,7 +8725,7 @@
         <v>616</v>
       </c>
       <c r="E301" t="str">
-        <f>IF(COUNTA(A301)=1,"(+ Pl.)",IF(COUNTA(C301)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8542,7 +8737,7 @@
         <v>618</v>
       </c>
       <c r="E302" t="str">
-        <f>IF(COUNTA(A302)=1,"(+ Pl.)",IF(COUNTA(C302)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8554,7 +8749,7 @@
         <v>620</v>
       </c>
       <c r="E303" t="str">
-        <f>IF(COUNTA(A303)=1,"(+ Pl.)",IF(COUNTA(C303)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8572,7 +8767,7 @@
         <v>622</v>
       </c>
       <c r="E304" t="str">
-        <f>IF(COUNTA(A304)=1,"(+ Pl.)",IF(COUNTA(C304)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8584,7 +8779,7 @@
         <v>624</v>
       </c>
       <c r="E305" t="str">
-        <f>IF(COUNTA(A305)=1,"(+ Pl.)",IF(COUNTA(C305)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8596,7 +8791,7 @@
         <v>626</v>
       </c>
       <c r="E306" t="str">
-        <f>IF(COUNTA(A306)=1,"(+ Pl.)",IF(COUNTA(C306)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8608,7 +8803,7 @@
         <v>628</v>
       </c>
       <c r="E307" t="str">
-        <f>IF(COUNTA(A307)=1,"(+ Pl.)",IF(COUNTA(C307)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8620,7 +8815,7 @@
         <v>630</v>
       </c>
       <c r="E308" t="str">
-        <f>IF(COUNTA(A308)=1,"(+ Pl.)",IF(COUNTA(C308)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8635,7 +8830,7 @@
         <v>632</v>
       </c>
       <c r="E309" t="str">
-        <f>IF(COUNTA(A309)=1,"(+ Pl.)",IF(COUNTA(C309)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8647,7 +8842,7 @@
         <v>634</v>
       </c>
       <c r="E310" t="str">
-        <f>IF(COUNTA(A310)=1,"(+ Pl.)",IF(COUNTA(C310)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8659,7 +8854,7 @@
         <v>636</v>
       </c>
       <c r="E311" t="str">
-        <f>IF(COUNTA(A311)=1,"(+ Pl.)",IF(COUNTA(C311)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8671,7 +8866,7 @@
         <v>638</v>
       </c>
       <c r="E312" t="str">
-        <f>IF(COUNTA(A312)=1,"(+ Pl.)",IF(COUNTA(C312)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8683,7 +8878,7 @@
         <v>640</v>
       </c>
       <c r="E313" t="str">
-        <f>IF(COUNTA(A313)=1,"(+ Pl.)",IF(COUNTA(C313)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8695,7 +8890,7 @@
         <v>642</v>
       </c>
       <c r="E314" t="str">
-        <f>IF(COUNTA(A314)=1,"(+ Pl.)",IF(COUNTA(C314)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8707,7 +8902,7 @@
         <v>644</v>
       </c>
       <c r="E315" t="str">
-        <f>IF(COUNTA(A315)=1,"(+ Pl.)",IF(COUNTA(C315)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8719,7 +8914,7 @@
         <v>646</v>
       </c>
       <c r="E316" t="str">
-        <f>IF(COUNTA(A316)=1,"(+ Pl.)",IF(COUNTA(C316)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8731,7 +8926,7 @@
         <v>648</v>
       </c>
       <c r="E317" t="str">
-        <f>IF(COUNTA(A317)=1,"(+ Pl.)",IF(COUNTA(C317)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8743,7 +8938,7 @@
         <v>650</v>
       </c>
       <c r="E318" t="str">
-        <f>IF(COUNTA(A318)=1,"(+ Pl.)",IF(COUNTA(C318)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8755,7 +8950,7 @@
         <v>652</v>
       </c>
       <c r="E319" t="str">
-        <f>IF(COUNTA(A319)=1,"(+ Pl.)",IF(COUNTA(C319)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8770,7 +8965,7 @@
         <v>654</v>
       </c>
       <c r="E320" t="str">
-        <f>IF(COUNTA(A320)=1,"(+ Pl.)",IF(COUNTA(C320)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8782,7 +8977,7 @@
         <v>656</v>
       </c>
       <c r="E321" t="str">
-        <f>IF(COUNTA(A321)=1,"(+ Pl.)",IF(COUNTA(C321)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8794,7 +8989,7 @@
         <v>658</v>
       </c>
       <c r="E322" t="str">
-        <f>IF(COUNTA(A322)=1,"(+ Pl.)",IF(COUNTA(C322)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E322:E385" si="5">IF(COUNTA(A322)=1,"(+ Pl.)",IF(COUNTA(C322)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -8806,7 +9001,7 @@
         <v>660</v>
       </c>
       <c r="E323" t="str">
-        <f>IF(COUNTA(A323)=1,"(+ Pl.)",IF(COUNTA(C323)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8821,7 +9016,7 @@
         <v>662</v>
       </c>
       <c r="E324" t="str">
-        <f>IF(COUNTA(A324)=1,"(+ Pl.)",IF(COUNTA(C324)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8833,7 +9028,7 @@
         <v>664</v>
       </c>
       <c r="E325" t="str">
-        <f>IF(COUNTA(A325)=1,"(+ Pl.)",IF(COUNTA(C325)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8845,7 +9040,7 @@
         <v>666</v>
       </c>
       <c r="E326" t="str">
-        <f>IF(COUNTA(A326)=1,"(+ Pl.)",IF(COUNTA(C326)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8863,7 +9058,7 @@
         <v>668</v>
       </c>
       <c r="E327" t="str">
-        <f>IF(COUNTA(A327)=1,"(+ Pl.)",IF(COUNTA(C327)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8875,7 +9070,7 @@
         <v>670</v>
       </c>
       <c r="E328" t="str">
-        <f>IF(COUNTA(A328)=1,"(+ Pl.)",IF(COUNTA(C328)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8887,7 +9082,7 @@
         <v>672</v>
       </c>
       <c r="E329" t="str">
-        <f>IF(COUNTA(A329)=1,"(+ Pl.)",IF(COUNTA(C329)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8899,7 +9094,7 @@
         <v>674</v>
       </c>
       <c r="E330" t="str">
-        <f>IF(COUNTA(A330)=1,"(+ Pl.)",IF(COUNTA(C330)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8911,7 +9106,7 @@
         <v>676</v>
       </c>
       <c r="E331" t="str">
-        <f>IF(COUNTA(A331)=1,"(+ Pl.)",IF(COUNTA(C331)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8923,7 +9118,7 @@
         <v>678</v>
       </c>
       <c r="E332" t="str">
-        <f>IF(COUNTA(A332)=1,"(+ Pl.)",IF(COUNTA(C332)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8941,7 +9136,7 @@
         <v>679</v>
       </c>
       <c r="E333" t="str">
-        <f>IF(COUNTA(A333)=1,"(+ Pl.)",IF(COUNTA(C333)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8953,7 +9148,7 @@
         <v>681</v>
       </c>
       <c r="E334" t="str">
-        <f>IF(COUNTA(A334)=1,"(+ Pl.)",IF(COUNTA(C334)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8971,7 +9166,7 @@
         <v>683</v>
       </c>
       <c r="E335" t="str">
-        <f>IF(COUNTA(A335)=1,"(+ Pl.)",IF(COUNTA(C335)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -8983,7 +9178,7 @@
         <v>685</v>
       </c>
       <c r="E336" t="str">
-        <f>IF(COUNTA(A336)=1,"(+ Pl.)",IF(COUNTA(C336)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8995,7 +9190,7 @@
         <v>687</v>
       </c>
       <c r="E337" t="str">
-        <f>IF(COUNTA(A337)=1,"(+ Pl.)",IF(COUNTA(C337)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9008,7 +9203,7 @@
         <v>689</v>
       </c>
       <c r="E338" t="str">
-        <f>IF(COUNTA(A338)=1,"(+ Pl.)",IF(COUNTA(C338)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9020,7 +9215,7 @@
         <v>691</v>
       </c>
       <c r="E339" t="str">
-        <f>IF(COUNTA(A339)=1,"(+ Pl.)",IF(COUNTA(C339)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9035,7 +9230,7 @@
         <v>694</v>
       </c>
       <c r="E340" t="str">
-        <f>IF(COUNTA(A340)=1,"(+ Pl.)",IF(COUNTA(C340)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -9048,7 +9243,7 @@
         <v>696</v>
       </c>
       <c r="E341" t="str">
-        <f>IF(COUNTA(A341)=1,"(+ Pl.)",IF(COUNTA(C341)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9060,7 +9255,7 @@
         <v>698</v>
       </c>
       <c r="E342" t="str">
-        <f>IF(COUNTA(A342)=1,"(+ Pl.)",IF(COUNTA(C342)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9072,7 +9267,7 @@
         <v>700</v>
       </c>
       <c r="E343" t="str">
-        <f>IF(COUNTA(A343)=1,"(+ Pl.)",IF(COUNTA(C343)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9084,7 +9279,7 @@
         <v>702</v>
       </c>
       <c r="E344" t="str">
-        <f>IF(COUNTA(A344)=1,"(+ Pl.)",IF(COUNTA(C344)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9096,7 +9291,7 @@
         <v>704</v>
       </c>
       <c r="E345" t="str">
-        <f>IF(COUNTA(A345)=1,"(+ Pl.)",IF(COUNTA(C345)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9108,7 +9303,7 @@
         <v>706</v>
       </c>
       <c r="E346" t="str">
-        <f>IF(COUNTA(A346)=1,"(+ Pl.)",IF(COUNTA(C346)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9123,7 +9318,7 @@
         <v>708</v>
       </c>
       <c r="E347" t="str">
-        <f>IF(COUNTA(A347)=1,"(+ Pl.)",IF(COUNTA(C347)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9135,7 +9330,7 @@
         <v>710</v>
       </c>
       <c r="E348" t="str">
-        <f>IF(COUNTA(A348)=1,"(+ Pl.)",IF(COUNTA(C348)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9147,7 +9342,7 @@
         <v>712</v>
       </c>
       <c r="E349" t="str">
-        <f>IF(COUNTA(A349)=1,"(+ Pl.)",IF(COUNTA(C349)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9159,7 +9354,7 @@
         <v>714</v>
       </c>
       <c r="E350" t="str">
-        <f>IF(COUNTA(A350)=1,"(+ Pl.)",IF(COUNTA(C350)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9171,7 +9366,7 @@
         <v>716</v>
       </c>
       <c r="E351" t="str">
-        <f>IF(COUNTA(A351)=1,"(+ Pl.)",IF(COUNTA(C351)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9186,7 +9381,7 @@
         <v>718</v>
       </c>
       <c r="E352" t="str">
-        <f>IF(COUNTA(A352)=1,"(+ Pl.)",IF(COUNTA(C352)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9201,7 +9396,7 @@
         <v>720</v>
       </c>
       <c r="E353" t="str">
-        <f>IF(COUNTA(A353)=1,"(+ Pl.)",IF(COUNTA(C353)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9213,7 +9408,7 @@
         <v>722</v>
       </c>
       <c r="E354" t="str">
-        <f>IF(COUNTA(A354)=1,"(+ Pl.)",IF(COUNTA(C354)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9231,7 +9426,7 @@
         <v>724</v>
       </c>
       <c r="E355" t="str">
-        <f>IF(COUNTA(A355)=1,"(+ Pl.)",IF(COUNTA(C355)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9243,7 +9438,7 @@
         <v>726</v>
       </c>
       <c r="E356" t="str">
-        <f>IF(COUNTA(A356)=1,"(+ Pl.)",IF(COUNTA(C356)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9255,7 +9450,7 @@
         <v>728</v>
       </c>
       <c r="E357" t="str">
-        <f>IF(COUNTA(A357)=1,"(+ Pl.)",IF(COUNTA(C357)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9267,7 +9462,7 @@
         <v>730</v>
       </c>
       <c r="E358" t="str">
-        <f>IF(COUNTA(A358)=1,"(+ Pl.)",IF(COUNTA(C358)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9279,7 +9474,7 @@
         <v>732</v>
       </c>
       <c r="E359" t="str">
-        <f>IF(COUNTA(A359)=1,"(+ Pl.)",IF(COUNTA(C359)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9291,7 +9486,7 @@
         <v>734</v>
       </c>
       <c r="E360" t="str">
-        <f>IF(COUNTA(A360)=1,"(+ Pl.)",IF(COUNTA(C360)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9309,7 +9504,7 @@
         <v>736</v>
       </c>
       <c r="E361" t="str">
-        <f>IF(COUNTA(A361)=1,"(+ Pl.)",IF(COUNTA(C361)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9321,7 +9516,7 @@
         <v>738</v>
       </c>
       <c r="E362" t="str">
-        <f>IF(COUNTA(A362)=1,"(+ Pl.)",IF(COUNTA(C362)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9336,7 +9531,7 @@
         <v>740</v>
       </c>
       <c r="E363" t="str">
-        <f>IF(COUNTA(A363)=1,"(+ Pl.)",IF(COUNTA(C363)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9348,7 +9543,7 @@
         <v>742</v>
       </c>
       <c r="E364" t="str">
-        <f>IF(COUNTA(A364)=1,"(+ Pl.)",IF(COUNTA(C364)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9360,7 +9555,7 @@
         <v>744</v>
       </c>
       <c r="E365" t="str">
-        <f>IF(COUNTA(A365)=1,"(+ Pl.)",IF(COUNTA(C365)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9378,7 +9573,7 @@
         <v>746</v>
       </c>
       <c r="E366" t="str">
-        <f>IF(COUNTA(A366)=1,"(+ Pl.)",IF(COUNTA(C366)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9390,7 +9585,7 @@
         <v>748</v>
       </c>
       <c r="E367" t="str">
-        <f>IF(COUNTA(A367)=1,"(+ Pl.)",IF(COUNTA(C367)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9402,7 +9597,7 @@
         <v>750</v>
       </c>
       <c r="E368" t="str">
-        <f>IF(COUNTA(A368)=1,"(+ Pl.)",IF(COUNTA(C368)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9414,7 +9609,7 @@
         <v>752</v>
       </c>
       <c r="E369" t="str">
-        <f>IF(COUNTA(A369)=1,"(+ Pl.)",IF(COUNTA(C369)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9426,7 +9621,7 @@
         <v>754</v>
       </c>
       <c r="E370" t="str">
-        <f>IF(COUNTA(A370)=1,"(+ Pl.)",IF(COUNTA(C370)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9438,7 +9633,7 @@
         <v>756</v>
       </c>
       <c r="E371" t="str">
-        <f>IF(COUNTA(A371)=1,"(+ Pl.)",IF(COUNTA(C371)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9450,7 +9645,7 @@
         <v>758</v>
       </c>
       <c r="E372" t="str">
-        <f>IF(COUNTA(A372)=1,"(+ Pl.)",IF(COUNTA(C372)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9462,7 +9657,7 @@
         <v>760</v>
       </c>
       <c r="E373" t="str">
-        <f>IF(COUNTA(A373)=1,"(+ Pl.)",IF(COUNTA(C373)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9474,7 +9669,7 @@
         <v>762</v>
       </c>
       <c r="E374" t="str">
-        <f>IF(COUNTA(A374)=1,"(+ Pl.)",IF(COUNTA(C374)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9486,7 +9681,7 @@
         <v>764</v>
       </c>
       <c r="E375" t="str">
-        <f>IF(COUNTA(A375)=1,"(+ Pl.)",IF(COUNTA(C375)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9498,7 +9693,7 @@
         <v>766</v>
       </c>
       <c r="E376" t="str">
-        <f>IF(COUNTA(A376)=1,"(+ Pl.)",IF(COUNTA(C376)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9513,7 +9708,7 @@
         <v>768</v>
       </c>
       <c r="E377" t="str">
-        <f>IF(COUNTA(A377)=1,"(+ Pl.)",IF(COUNTA(C377)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9528,7 +9723,7 @@
         <v>771</v>
       </c>
       <c r="E378" t="str">
-        <f>IF(COUNTA(A378)=1,"(+ Pl.)",IF(COUNTA(C378)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -9540,7 +9735,7 @@
         <v>773</v>
       </c>
       <c r="E379" t="str">
-        <f>IF(COUNTA(A379)=1,"(+ Pl.)",IF(COUNTA(C379)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9552,7 +9747,7 @@
         <v>775</v>
       </c>
       <c r="E380" t="str">
-        <f>IF(COUNTA(A380)=1,"(+ Pl.)",IF(COUNTA(C380)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9570,7 +9765,7 @@
         <v>777</v>
       </c>
       <c r="E381" t="str">
-        <f>IF(COUNTA(A381)=1,"(+ Pl.)",IF(COUNTA(C381)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9582,7 +9777,7 @@
         <v>779</v>
       </c>
       <c r="E382" t="str">
-        <f>IF(COUNTA(A382)=1,"(+ Pl.)",IF(COUNTA(C382)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9600,7 +9795,7 @@
         <v>781</v>
       </c>
       <c r="E383" t="str">
-        <f>IF(COUNTA(A383)=1,"(+ Pl.)",IF(COUNTA(C383)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9612,7 +9807,7 @@
         <v>783</v>
       </c>
       <c r="E384" t="str">
-        <f>IF(COUNTA(A384)=1,"(+ Pl.)",IF(COUNTA(C384)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9627,7 +9822,7 @@
         <v>785</v>
       </c>
       <c r="E385" t="str">
-        <f>IF(COUNTA(A385)=1,"(+ Pl.)",IF(COUNTA(C385)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="5"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9639,7 +9834,7 @@
         <v>787</v>
       </c>
       <c r="E386" t="str">
-        <f>IF(COUNTA(A386)=1,"(+ Pl.)",IF(COUNTA(C386)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E386:E449" si="6">IF(COUNTA(A386)=1,"(+ Pl.)",IF(COUNTA(C386)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -9657,7 +9852,7 @@
         <v>789</v>
       </c>
       <c r="E387" t="str">
-        <f>IF(COUNTA(A387)=1,"(+ Pl.)",IF(COUNTA(C387)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9669,7 +9864,7 @@
         <v>791</v>
       </c>
       <c r="E388" t="str">
-        <f>IF(COUNTA(A388)=1,"(+ Pl.)",IF(COUNTA(C388)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9681,7 +9876,7 @@
         <v>793</v>
       </c>
       <c r="E389" t="str">
-        <f>IF(COUNTA(A389)=1,"(+ Pl.)",IF(COUNTA(C389)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9693,7 +9888,7 @@
         <v>795</v>
       </c>
       <c r="E390" t="str">
-        <f>IF(COUNTA(A390)=1,"(+ Pl.)",IF(COUNTA(C390)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9711,7 +9906,7 @@
         <v>797</v>
       </c>
       <c r="E391" t="str">
-        <f>IF(COUNTA(A391)=1,"(+ Pl.)",IF(COUNTA(C391)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9723,7 +9918,7 @@
         <v>315</v>
       </c>
       <c r="E392" t="str">
-        <f>IF(COUNTA(A392)=1,"(+ Pl.)",IF(COUNTA(C392)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9735,7 +9930,7 @@
         <v>800</v>
       </c>
       <c r="E393" t="str">
-        <f>IF(COUNTA(A393)=1,"(+ Pl.)",IF(COUNTA(C393)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9753,7 +9948,7 @@
         <v>802</v>
       </c>
       <c r="E394" t="str">
-        <f>IF(COUNTA(A394)=1,"(+ Pl.)",IF(COUNTA(C394)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9771,7 +9966,7 @@
         <v>804</v>
       </c>
       <c r="E395" t="str">
-        <f>IF(COUNTA(A395)=1,"(+ Pl.)",IF(COUNTA(C395)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9789,7 +9984,7 @@
         <v>806</v>
       </c>
       <c r="E396" t="str">
-        <f>IF(COUNTA(A396)=1,"(+ Pl.)",IF(COUNTA(C396)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9801,7 +9996,7 @@
         <v>808</v>
       </c>
       <c r="E397" t="str">
-        <f>IF(COUNTA(A397)=1,"(+ Pl.)",IF(COUNTA(C397)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9819,7 +10014,7 @@
         <v>810</v>
       </c>
       <c r="E398" t="str">
-        <f>IF(COUNTA(A398)=1,"(+ Pl.)",IF(COUNTA(C398)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9831,7 +10026,7 @@
         <v>812</v>
       </c>
       <c r="E399" t="str">
-        <f>IF(COUNTA(A399)=1,"(+ Pl.)",IF(COUNTA(C399)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9843,7 +10038,7 @@
         <v>814</v>
       </c>
       <c r="E400" t="str">
-        <f>IF(COUNTA(A400)=1,"(+ Pl.)",IF(COUNTA(C400)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9855,7 +10050,7 @@
         <v>816</v>
       </c>
       <c r="E401" t="str">
-        <f>IF(COUNTA(A401)=1,"(+ Pl.)",IF(COUNTA(C401)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9873,7 +10068,7 @@
         <v>819</v>
       </c>
       <c r="E402" t="str">
-        <f>IF(COUNTA(A402)=1,"(+ Pl.)",IF(COUNTA(C402)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9885,7 +10080,7 @@
         <v>821</v>
       </c>
       <c r="E403" t="str">
-        <f>IF(COUNTA(A403)=1,"(+ Pl.)",IF(COUNTA(C403)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9897,7 +10092,7 @@
         <v>823</v>
       </c>
       <c r="E404" t="str">
-        <f>IF(COUNTA(A404)=1,"(+ Pl.)",IF(COUNTA(C404)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9915,7 +10110,7 @@
         <v>825</v>
       </c>
       <c r="E405" t="str">
-        <f>IF(COUNTA(A405)=1,"(+ Pl.)",IF(COUNTA(C405)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9933,7 +10128,7 @@
         <v>827</v>
       </c>
       <c r="E406" t="str">
-        <f>IF(COUNTA(A406)=1,"(+ Pl.)",IF(COUNTA(C406)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9951,7 +10146,7 @@
         <v>829</v>
       </c>
       <c r="E407" t="str">
-        <f>IF(COUNTA(A407)=1,"(+ Pl.)",IF(COUNTA(C407)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9969,7 +10164,7 @@
         <v>831</v>
       </c>
       <c r="E408" t="str">
-        <f>IF(COUNTA(A408)=1,"(+ Pl.)",IF(COUNTA(C408)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -9981,7 +10176,7 @@
         <v>833</v>
       </c>
       <c r="E409" t="str">
-        <f>IF(COUNTA(A409)=1,"(+ Pl.)",IF(COUNTA(C409)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9994,7 +10189,7 @@
         <v>835</v>
       </c>
       <c r="E410" t="str">
-        <f>IF(COUNTA(A410)=1,"(+ Pl.)",IF(COUNTA(C410)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10012,7 +10207,7 @@
         <v>837</v>
       </c>
       <c r="E411" t="str">
-        <f>IF(COUNTA(A411)=1,"(+ Pl.)",IF(COUNTA(C411)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10030,7 +10225,7 @@
         <v>839</v>
       </c>
       <c r="E412" t="str">
-        <f>IF(COUNTA(A412)=1,"(+ Pl.)",IF(COUNTA(C412)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10048,7 +10243,7 @@
         <v>841</v>
       </c>
       <c r="E413" t="str">
-        <f>IF(COUNTA(A413)=1,"(+ Pl.)",IF(COUNTA(C413)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10060,7 +10255,7 @@
         <v>843</v>
       </c>
       <c r="E414" t="str">
-        <f>IF(COUNTA(A414)=1,"(+ Pl.)",IF(COUNTA(C414)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10078,7 +10273,7 @@
         <v>845</v>
       </c>
       <c r="E415" t="str">
-        <f>IF(COUNTA(A415)=1,"(+ Pl.)",IF(COUNTA(C415)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10096,7 +10291,7 @@
         <v>847</v>
       </c>
       <c r="E416" t="str">
-        <f>IF(COUNTA(A416)=1,"(+ Pl.)",IF(COUNTA(C416)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10114,7 +10309,7 @@
         <v>849</v>
       </c>
       <c r="E417" t="str">
-        <f>IF(COUNTA(A417)=1,"(+ Pl.)",IF(COUNTA(C417)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10126,7 +10321,7 @@
         <v>851</v>
       </c>
       <c r="E418" t="str">
-        <f>IF(COUNTA(A418)=1,"(+ Pl.)",IF(COUNTA(C418)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10138,7 +10333,7 @@
         <v>853</v>
       </c>
       <c r="E419" t="str">
-        <f>IF(COUNTA(A419)=1,"(+ Pl.)",IF(COUNTA(C419)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10153,7 +10348,7 @@
         <v>855</v>
       </c>
       <c r="E420" t="str">
-        <f>IF(COUNTA(A420)=1,"(+ Pl.)",IF(COUNTA(C420)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10165,7 +10360,7 @@
         <v>315</v>
       </c>
       <c r="E421" t="str">
-        <f>IF(COUNTA(A421)=1,"(+ Pl.)",IF(COUNTA(C421)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10177,7 +10372,7 @@
         <v>857</v>
       </c>
       <c r="E422" t="str">
-        <f>IF(COUNTA(A422)=1,"(+ Pl.)",IF(COUNTA(C422)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10189,7 +10384,7 @@
         <v>859</v>
       </c>
       <c r="E423" t="str">
-        <f>IF(COUNTA(A423)=1,"(+ Pl.)",IF(COUNTA(C423)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10201,7 +10396,7 @@
         <v>861</v>
       </c>
       <c r="E424" t="str">
-        <f>IF(COUNTA(A424)=1,"(+ Pl.)",IF(COUNTA(C424)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10213,7 +10408,7 @@
         <v>863</v>
       </c>
       <c r="E425" t="str">
-        <f>IF(COUNTA(A425)=1,"(+ Pl.)",IF(COUNTA(C425)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10231,7 +10426,7 @@
         <v>865</v>
       </c>
       <c r="E426" t="str">
-        <f>IF(COUNTA(A426)=1,"(+ Pl.)",IF(COUNTA(C426)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10246,7 +10441,7 @@
         <v>867</v>
       </c>
       <c r="E427" t="str">
-        <f>IF(COUNTA(A427)=1,"(+ Pl.)",IF(COUNTA(C427)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10258,7 +10453,7 @@
         <v>868</v>
       </c>
       <c r="E428" t="str">
-        <f>IF(COUNTA(A428)=1,"(+ Pl.)",IF(COUNTA(C428)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10270,7 +10465,7 @@
         <v>870</v>
       </c>
       <c r="E429" t="str">
-        <f>IF(COUNTA(A429)=1,"(+ Pl.)",IF(COUNTA(C429)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10288,7 +10483,7 @@
         <v>872</v>
       </c>
       <c r="E430" t="str">
-        <f>IF(COUNTA(A430)=1,"(+ Pl.)",IF(COUNTA(C430)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10300,7 +10495,7 @@
         <v>874</v>
       </c>
       <c r="E431" t="str">
-        <f>IF(COUNTA(A431)=1,"(+ Pl.)",IF(COUNTA(C431)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10312,7 +10507,7 @@
         <v>876</v>
       </c>
       <c r="E432" t="str">
-        <f>IF(COUNTA(A432)=1,"(+ Pl.)",IF(COUNTA(C432)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10324,7 +10519,7 @@
         <v>878</v>
       </c>
       <c r="E433" t="str">
-        <f>IF(COUNTA(A433)=1,"(+ Pl.)",IF(COUNTA(C433)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10336,7 +10531,7 @@
         <v>880</v>
       </c>
       <c r="E434" t="str">
-        <f>IF(COUNTA(A434)=1,"(+ Pl.)",IF(COUNTA(C434)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10348,7 +10543,7 @@
         <v>882</v>
       </c>
       <c r="E435" t="str">
-        <f>IF(COUNTA(A435)=1,"(+ Pl.)",IF(COUNTA(C435)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10363,7 +10558,7 @@
         <v>885</v>
       </c>
       <c r="E436" t="str">
-        <f>IF(COUNTA(A436)=1,"(+ Pl.)",IF(COUNTA(C436)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -10381,7 +10576,7 @@
         <v>887</v>
       </c>
       <c r="E437" t="str">
-        <f>IF(COUNTA(A437)=1,"(+ Pl.)",IF(COUNTA(C437)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10399,7 +10594,7 @@
         <v>889</v>
       </c>
       <c r="E438" t="str">
-        <f>IF(COUNTA(A438)=1,"(+ Pl.)",IF(COUNTA(C438)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10411,7 +10606,7 @@
         <v>891</v>
       </c>
       <c r="E439" t="str">
-        <f>IF(COUNTA(A439)=1,"(+ Pl.)",IF(COUNTA(C439)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10429,7 +10624,7 @@
         <v>893</v>
       </c>
       <c r="E440" t="str">
-        <f>IF(COUNTA(A440)=1,"(+ Pl.)",IF(COUNTA(C440)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10444,7 +10639,7 @@
         <v>895</v>
       </c>
       <c r="E441" t="str">
-        <f>IF(COUNTA(A441)=1,"(+ Pl.)",IF(COUNTA(C441)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10456,7 +10651,7 @@
         <v>897</v>
       </c>
       <c r="E442" t="str">
-        <f>IF(COUNTA(A442)=1,"(+ Pl.)",IF(COUNTA(C442)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10474,7 +10669,7 @@
         <v>899</v>
       </c>
       <c r="E443" t="str">
-        <f>IF(COUNTA(A443)=1,"(+ Pl.)",IF(COUNTA(C443)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10486,7 +10681,7 @@
         <v>901</v>
       </c>
       <c r="E444" t="str">
-        <f>IF(COUNTA(A444)=1,"(+ Pl.)",IF(COUNTA(C444)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10498,7 +10693,7 @@
         <v>903</v>
       </c>
       <c r="E445" t="str">
-        <f>IF(COUNTA(A445)=1,"(+ Pl.)",IF(COUNTA(C445)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10510,7 +10705,7 @@
         <v>905</v>
       </c>
       <c r="E446" t="str">
-        <f>IF(COUNTA(A446)=1,"(+ Pl.)",IF(COUNTA(C446)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10528,7 +10723,7 @@
         <v>907</v>
       </c>
       <c r="E447" t="str">
-        <f>IF(COUNTA(A447)=1,"(+ Pl.)",IF(COUNTA(C447)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10540,7 +10735,7 @@
         <v>909</v>
       </c>
       <c r="E448" t="str">
-        <f>IF(COUNTA(A448)=1,"(+ Pl.)",IF(COUNTA(C448)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10558,7 +10753,7 @@
         <v>911</v>
       </c>
       <c r="E449" t="str">
-        <f>IF(COUNTA(A449)=1,"(+ Pl.)",IF(COUNTA(C449)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="6"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10573,7 +10768,7 @@
         <v>913</v>
       </c>
       <c r="E450" t="str">
-        <f>IF(COUNTA(A450)=1,"(+ Pl.)",IF(COUNTA(C450)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E450:E479" si="7">IF(COUNTA(A450)=1,"(+ Pl.)",IF(COUNTA(C450)=1,"(+ präteritum, p. II)",""))</f>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10591,7 +10786,7 @@
         <v>724</v>
       </c>
       <c r="E451" t="str">
-        <f>IF(COUNTA(A451)=1,"(+ Pl.)",IF(COUNTA(C451)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10609,7 +10804,7 @@
         <v>915</v>
       </c>
       <c r="E452" t="str">
-        <f>IF(COUNTA(A452)=1,"(+ Pl.)",IF(COUNTA(C452)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10621,7 +10816,7 @@
         <v>917</v>
       </c>
       <c r="E453" t="str">
-        <f>IF(COUNTA(A453)=1,"(+ Pl.)",IF(COUNTA(C453)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10639,7 +10834,7 @@
         <v>919</v>
       </c>
       <c r="E454" t="str">
-        <f>IF(COUNTA(A454)=1,"(+ Pl.)",IF(COUNTA(C454)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10654,7 +10849,7 @@
         <v>921</v>
       </c>
       <c r="E455" t="str">
-        <f>IF(COUNTA(A455)=1,"(+ Pl.)",IF(COUNTA(C455)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10672,7 +10867,7 @@
         <v>923</v>
       </c>
       <c r="E456" t="str">
-        <f>IF(COUNTA(A456)=1,"(+ Pl.)",IF(COUNTA(C456)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10684,7 +10879,7 @@
         <v>925</v>
       </c>
       <c r="E457" t="str">
-        <f>IF(COUNTA(A457)=1,"(+ Pl.)",IF(COUNTA(C457)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10696,7 +10891,7 @@
         <v>927</v>
       </c>
       <c r="E458" t="str">
-        <f>IF(COUNTA(A458)=1,"(+ Pl.)",IF(COUNTA(C458)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10708,7 +10903,7 @@
         <v>929</v>
       </c>
       <c r="E459" t="str">
-        <f>IF(COUNTA(A459)=1,"(+ Pl.)",IF(COUNTA(C459)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10720,7 +10915,7 @@
         <v>931</v>
       </c>
       <c r="E460" t="str">
-        <f>IF(COUNTA(A460)=1,"(+ Pl.)",IF(COUNTA(C460)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10732,7 +10927,7 @@
         <v>933</v>
       </c>
       <c r="E461" t="str">
-        <f>IF(COUNTA(A461)=1,"(+ Pl.)",IF(COUNTA(C461)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10744,7 +10939,7 @@
         <v>935</v>
       </c>
       <c r="E462" t="str">
-        <f>IF(COUNTA(A462)=1,"(+ Pl.)",IF(COUNTA(C462)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10756,7 +10951,7 @@
         <v>937</v>
       </c>
       <c r="E463" t="str">
-        <f>IF(COUNTA(A463)=1,"(+ Pl.)",IF(COUNTA(C463)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10768,7 +10963,7 @@
         <v>939</v>
       </c>
       <c r="E464" t="str">
-        <f>IF(COUNTA(A464)=1,"(+ Pl.)",IF(COUNTA(C464)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10783,7 +10978,7 @@
         <v>941</v>
       </c>
       <c r="E465" t="str">
-        <f>IF(COUNTA(A465)=1,"(+ Pl.)",IF(COUNTA(C465)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10795,7 +10990,7 @@
         <v>943</v>
       </c>
       <c r="E466" t="str">
-        <f>IF(COUNTA(A466)=1,"(+ Pl.)",IF(COUNTA(C466)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10810,7 +11005,7 @@
         <v>946</v>
       </c>
       <c r="E467" t="str">
-        <f>IF(COUNTA(A467)=1,"(+ Pl.)",IF(COUNTA(C467)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -10825,7 +11020,7 @@
         <v>948</v>
       </c>
       <c r="E468" t="str">
-        <f>IF(COUNTA(A468)=1,"(+ Pl.)",IF(COUNTA(C468)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10840,7 +11035,7 @@
         <v>950</v>
       </c>
       <c r="E469" t="str">
-        <f>IF(COUNTA(A469)=1,"(+ Pl.)",IF(COUNTA(C469)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10855,7 +11050,7 @@
         <v>952</v>
       </c>
       <c r="E470" t="str">
-        <f>IF(COUNTA(A470)=1,"(+ Pl.)",IF(COUNTA(C470)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10870,7 +11065,7 @@
         <v>954</v>
       </c>
       <c r="E471" t="str">
-        <f>IF(COUNTA(A471)=1,"(+ Pl.)",IF(COUNTA(C471)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10882,7 +11077,7 @@
         <v>955</v>
       </c>
       <c r="E472" t="str">
-        <f>IF(COUNTA(A472)=1,"(+ Pl.)",IF(COUNTA(C472)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10894,7 +11089,7 @@
         <v>775</v>
       </c>
       <c r="E473" t="str">
-        <f>IF(COUNTA(A473)=1,"(+ Pl.)",IF(COUNTA(C473)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10906,7 +11101,7 @@
         <v>957</v>
       </c>
       <c r="E474" t="str">
-        <f>IF(COUNTA(A474)=1,"(+ Pl.)",IF(COUNTA(C474)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10918,7 +11113,7 @@
         <v>758</v>
       </c>
       <c r="E475" t="str">
-        <f>IF(COUNTA(A475)=1,"(+ Pl.)",IF(COUNTA(C475)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10933,7 +11128,7 @@
         <v>959</v>
       </c>
       <c r="E476" t="str">
-        <f>IF(COUNTA(A476)=1,"(+ Pl.)",IF(COUNTA(C476)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -10945,7 +11140,7 @@
         <v>961</v>
       </c>
       <c r="E477" t="str">
-        <f>IF(COUNTA(A477)=1,"(+ Pl.)",IF(COUNTA(C477)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10957,7 +11152,7 @@
         <v>963</v>
       </c>
       <c r="E478" t="str">
-        <f>IF(COUNTA(A478)=1,"(+ Pl.)",IF(COUNTA(C478)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10972,7 +11167,7 @@
         <v>966</v>
       </c>
       <c r="E479" t="str">
-        <f>IF(COUNTA(A479)=1,"(+ Pl.)",IF(COUNTA(C479)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="7"/>
         <v>(+ präteritum, p. II)</v>
       </c>
     </row>
@@ -11008,7 +11203,7 @@
         <v>339</v>
       </c>
       <c r="E483" t="str">
-        <f>IF(COUNTA(A483)=1,"(+ Pl.)",IF(COUNTA(C483)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E483:E514" si="8">IF(COUNTA(A483)=1,"(+ Pl.)",IF(COUNTA(C483)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -11020,7 +11215,7 @@
         <v>880</v>
       </c>
       <c r="E484" t="str">
-        <f>IF(COUNTA(A484)=1,"(+ Pl.)",IF(COUNTA(C484)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11032,7 +11227,7 @@
         <v>974</v>
       </c>
       <c r="E485" t="str">
-        <f>IF(COUNTA(A485)=1,"(+ Pl.)",IF(COUNTA(C485)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11044,7 +11239,7 @@
         <v>976</v>
       </c>
       <c r="E486" t="str">
-        <f>IF(COUNTA(A486)=1,"(+ Pl.)",IF(COUNTA(C486)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11059,7 +11254,7 @@
         <v>978</v>
       </c>
       <c r="E487" t="str">
-        <f>IF(COUNTA(A487)=1,"(+ Pl.)",IF(COUNTA(C487)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11071,7 +11266,7 @@
         <v>980</v>
       </c>
       <c r="E488" t="str">
-        <f>IF(COUNTA(A488)=1,"(+ Pl.)",IF(COUNTA(C488)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11083,7 +11278,7 @@
         <v>982</v>
       </c>
       <c r="E489" t="str">
-        <f>IF(COUNTA(A489)=1,"(+ Pl.)",IF(COUNTA(C489)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11095,7 +11290,7 @@
         <v>984</v>
       </c>
       <c r="E490" t="str">
-        <f>IF(COUNTA(A490)=1,"(+ Pl.)",IF(COUNTA(C490)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11107,7 +11302,7 @@
         <v>986</v>
       </c>
       <c r="E491" t="str">
-        <f>IF(COUNTA(A491)=1,"(+ Pl.)",IF(COUNTA(C491)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11119,7 +11314,7 @@
         <v>988</v>
       </c>
       <c r="E492" t="str">
-        <f>IF(COUNTA(A492)=1,"(+ Pl.)",IF(COUNTA(C492)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11131,7 +11326,7 @@
         <v>990</v>
       </c>
       <c r="E493" t="str">
-        <f>IF(COUNTA(A493)=1,"(+ Pl.)",IF(COUNTA(C493)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11143,7 +11338,7 @@
         <v>992</v>
       </c>
       <c r="E494" t="str">
-        <f>IF(COUNTA(A494)=1,"(+ Pl.)",IF(COUNTA(C494)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11155,7 +11350,7 @@
         <v>994</v>
       </c>
       <c r="E495" t="str">
-        <f>IF(COUNTA(A495)=1,"(+ Pl.)",IF(COUNTA(C495)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11173,7 +11368,7 @@
         <v>996</v>
       </c>
       <c r="E496" t="str">
-        <f>IF(COUNTA(A496)=1,"(+ Pl.)",IF(COUNTA(C496)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11185,7 +11380,7 @@
         <v>998</v>
       </c>
       <c r="E497" t="str">
-        <f>IF(COUNTA(A497)=1,"(+ Pl.)",IF(COUNTA(C497)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11197,7 +11392,7 @@
         <v>1000</v>
       </c>
       <c r="E498" t="str">
-        <f>IF(COUNTA(A498)=1,"(+ Pl.)",IF(COUNTA(C498)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11209,7 +11404,7 @@
         <v>1002</v>
       </c>
       <c r="E499" t="str">
-        <f>IF(COUNTA(A499)=1,"(+ Pl.)",IF(COUNTA(C499)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11227,7 +11422,7 @@
         <v>1004</v>
       </c>
       <c r="E500" t="str">
-        <f>IF(COUNTA(A500)=1,"(+ Pl.)",IF(COUNTA(C500)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11239,7 +11434,7 @@
         <v>1006</v>
       </c>
       <c r="E501" t="str">
-        <f>IF(COUNTA(A501)=1,"(+ Pl.)",IF(COUNTA(C501)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11251,7 +11446,7 @@
         <v>1008</v>
       </c>
       <c r="E502" t="str">
-        <f>IF(COUNTA(A502)=1,"(+ Pl.)",IF(COUNTA(C502)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11263,7 +11458,7 @@
         <v>1010</v>
       </c>
       <c r="E503" t="str">
-        <f>IF(COUNTA(A503)=1,"(+ Pl.)",IF(COUNTA(C503)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11275,7 +11470,7 @@
         <v>1012</v>
       </c>
       <c r="E504" t="str">
-        <f>IF(COUNTA(A504)=1,"(+ Pl.)",IF(COUNTA(C504)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11287,7 +11482,7 @@
         <v>1014</v>
       </c>
       <c r="E505" t="str">
-        <f>IF(COUNTA(A505)=1,"(+ Pl.)",IF(COUNTA(C505)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11305,7 +11500,7 @@
         <v>1016</v>
       </c>
       <c r="E506" t="str">
-        <f>IF(COUNTA(A506)=1,"(+ Pl.)",IF(COUNTA(C506)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11323,7 +11518,7 @@
         <v>1018</v>
       </c>
       <c r="E507" t="str">
-        <f>IF(COUNTA(A507)=1,"(+ Pl.)",IF(COUNTA(C507)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11335,7 +11530,7 @@
         <v>1020</v>
       </c>
       <c r="E508" t="str">
-        <f>IF(COUNTA(A508)=1,"(+ Pl.)",IF(COUNTA(C508)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11347,7 +11542,7 @@
         <v>1022</v>
       </c>
       <c r="E509" t="str">
-        <f>IF(COUNTA(A509)=1,"(+ Pl.)",IF(COUNTA(C509)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11359,7 +11554,7 @@
         <v>1024</v>
       </c>
       <c r="E510" t="str">
-        <f>IF(COUNTA(A510)=1,"(+ Pl.)",IF(COUNTA(C510)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11371,7 +11566,7 @@
         <v>1026</v>
       </c>
       <c r="E511" t="str">
-        <f>IF(COUNTA(A511)=1,"(+ Pl.)",IF(COUNTA(C511)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11383,7 +11578,7 @@
         <v>1028</v>
       </c>
       <c r="E512" t="str">
-        <f>IF(COUNTA(A512)=1,"(+ Pl.)",IF(COUNTA(C512)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11395,7 +11590,7 @@
         <v>1030</v>
       </c>
       <c r="E513" t="str">
-        <f>IF(COUNTA(A513)=1,"(+ Pl.)",IF(COUNTA(C513)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11407,7 +11602,7 @@
         <v>1032</v>
       </c>
       <c r="E514" t="str">
-        <f>IF(COUNTA(A514)=1,"(+ Pl.)",IF(COUNTA(C514)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11419,7 +11614,7 @@
         <v>1034</v>
       </c>
       <c r="E515" t="str">
-        <f>IF(COUNTA(A515)=1,"(+ Pl.)",IF(COUNTA(C515)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E515:E546" si="9">IF(COUNTA(A515)=1,"(+ Pl.)",IF(COUNTA(C515)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -11431,7 +11626,7 @@
         <v>1036</v>
       </c>
       <c r="E516" t="str">
-        <f>IF(COUNTA(A516)=1,"(+ Pl.)",IF(COUNTA(C516)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11443,7 +11638,7 @@
         <v>1038</v>
       </c>
       <c r="E517" t="str">
-        <f>IF(COUNTA(A517)=1,"(+ Pl.)",IF(COUNTA(C517)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11455,7 +11650,7 @@
         <v>1040</v>
       </c>
       <c r="E518" t="str">
-        <f>IF(COUNTA(A518)=1,"(+ Pl.)",IF(COUNTA(C518)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11467,7 +11662,7 @@
         <v>255</v>
       </c>
       <c r="E519" t="str">
-        <f>IF(COUNTA(A519)=1,"(+ Pl.)",IF(COUNTA(C519)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11479,7 +11674,7 @@
         <v>1043</v>
       </c>
       <c r="E520" t="str">
-        <f>IF(COUNTA(A520)=1,"(+ Pl.)",IF(COUNTA(C520)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11491,7 +11686,7 @@
         <v>1045</v>
       </c>
       <c r="E521" t="str">
-        <f>IF(COUNTA(A521)=1,"(+ Pl.)",IF(COUNTA(C521)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11503,7 +11698,7 @@
         <v>1047</v>
       </c>
       <c r="E522" t="str">
-        <f>IF(COUNTA(A522)=1,"(+ Pl.)",IF(COUNTA(C522)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11515,7 +11710,7 @@
         <v>1049</v>
       </c>
       <c r="E523" t="str">
-        <f>IF(COUNTA(A523)=1,"(+ Pl.)",IF(COUNTA(C523)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11527,7 +11722,7 @@
         <v>1051</v>
       </c>
       <c r="E524" t="str">
-        <f>IF(COUNTA(A524)=1,"(+ Pl.)",IF(COUNTA(C524)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11539,7 +11734,7 @@
         <v>933</v>
       </c>
       <c r="E525" t="str">
-        <f>IF(COUNTA(A525)=1,"(+ Pl.)",IF(COUNTA(C525)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11551,7 +11746,7 @@
         <v>1054</v>
       </c>
       <c r="E526" t="str">
-        <f>IF(COUNTA(A526)=1,"(+ Pl.)",IF(COUNTA(C526)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11563,7 +11758,7 @@
         <v>1056</v>
       </c>
       <c r="E527" t="str">
-        <f>IF(COUNTA(A527)=1,"(+ Pl.)",IF(COUNTA(C527)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11581,7 +11776,7 @@
         <v>1058</v>
       </c>
       <c r="E528" t="str">
-        <f>IF(COUNTA(A528)=1,"(+ Pl.)",IF(COUNTA(C528)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11599,7 +11794,7 @@
         <v>1060</v>
       </c>
       <c r="E529" t="str">
-        <f>IF(COUNTA(A529)=1,"(+ Pl.)",IF(COUNTA(C529)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11611,7 +11806,7 @@
         <v>1062</v>
       </c>
       <c r="E530" t="str">
-        <f>IF(COUNTA(A530)=1,"(+ Pl.)",IF(COUNTA(C530)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11629,7 +11824,7 @@
         <v>1064</v>
       </c>
       <c r="E531" t="str">
-        <f>IF(COUNTA(A531)=1,"(+ Pl.)",IF(COUNTA(C531)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11647,7 +11842,7 @@
         <v>1066</v>
       </c>
       <c r="E532" t="str">
-        <f>IF(COUNTA(A532)=1,"(+ Pl.)",IF(COUNTA(C532)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11665,7 +11860,7 @@
         <v>1068</v>
       </c>
       <c r="E533" t="str">
-        <f>IF(COUNTA(A533)=1,"(+ Pl.)",IF(COUNTA(C533)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11683,7 +11878,7 @@
         <v>1070</v>
       </c>
       <c r="E534" t="str">
-        <f>IF(COUNTA(A534)=1,"(+ Pl.)",IF(COUNTA(C534)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11695,7 +11890,7 @@
         <v>1072</v>
       </c>
       <c r="E535" t="str">
-        <f>IF(COUNTA(A535)=1,"(+ Pl.)",IF(COUNTA(C535)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11710,7 +11905,7 @@
         <v>1074</v>
       </c>
       <c r="E536" t="str">
-        <f>IF(COUNTA(A536)=1,"(+ Pl.)",IF(COUNTA(C536)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11722,7 +11917,7 @@
         <v>1076</v>
       </c>
       <c r="E537" t="str">
-        <f>IF(COUNTA(A537)=1,"(+ Pl.)",IF(COUNTA(C537)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11734,7 +11929,7 @@
         <v>1078</v>
       </c>
       <c r="E538" t="str">
-        <f>IF(COUNTA(A538)=1,"(+ Pl.)",IF(COUNTA(C538)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11746,7 +11941,7 @@
         <v>1080</v>
       </c>
       <c r="E539" t="str">
-        <f>IF(COUNTA(A539)=1,"(+ Pl.)",IF(COUNTA(C539)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11764,7 +11959,7 @@
         <v>1082</v>
       </c>
       <c r="E540" t="str">
-        <f>IF(COUNTA(A540)=1,"(+ Pl.)",IF(COUNTA(C540)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11782,7 +11977,7 @@
         <v>1084</v>
       </c>
       <c r="E541" t="str">
-        <f>IF(COUNTA(A541)=1,"(+ Pl.)",IF(COUNTA(C541)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11797,7 +11992,7 @@
         <v>1086</v>
       </c>
       <c r="E542" t="str">
-        <f>IF(COUNTA(A542)=1,"(+ Pl.)",IF(COUNTA(C542)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11809,7 +12004,7 @@
         <v>1088</v>
       </c>
       <c r="E543" t="str">
-        <f>IF(COUNTA(A543)=1,"(+ Pl.)",IF(COUNTA(C543)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11821,7 +12016,7 @@
         <v>1090</v>
       </c>
       <c r="E544" t="str">
-        <f>IF(COUNTA(A544)=1,"(+ Pl.)",IF(COUNTA(C544)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11833,7 +12028,7 @@
         <v>1092</v>
       </c>
       <c r="E545" t="str">
-        <f>IF(COUNTA(A545)=1,"(+ Pl.)",IF(COUNTA(C545)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11845,7 +12040,7 @@
         <v>1094</v>
       </c>
       <c r="E546" t="str">
-        <f>IF(COUNTA(A546)=1,"(+ Pl.)",IF(COUNTA(C546)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11863,7 +12058,7 @@
         <v>1096</v>
       </c>
       <c r="E547" t="str">
-        <f>IF(COUNTA(A547)=1,"(+ Pl.)",IF(COUNTA(C547)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E547:E578" si="10">IF(COUNTA(A547)=1,"(+ Pl.)",IF(COUNTA(C547)=1,"(+ präteritum, p. II)",""))</f>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11875,7 +12070,7 @@
         <v>1098</v>
       </c>
       <c r="E548" t="str">
-        <f>IF(COUNTA(A548)=1,"(+ Pl.)",IF(COUNTA(C548)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11887,7 +12082,7 @@
         <v>1100</v>
       </c>
       <c r="E549" t="str">
-        <f>IF(COUNTA(A549)=1,"(+ Pl.)",IF(COUNTA(C549)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11905,7 +12100,7 @@
         <v>1102</v>
       </c>
       <c r="E550" t="str">
-        <f>IF(COUNTA(A550)=1,"(+ Pl.)",IF(COUNTA(C550)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11917,7 +12112,7 @@
         <v>1104</v>
       </c>
       <c r="E551" t="str">
-        <f>IF(COUNTA(A551)=1,"(+ Pl.)",IF(COUNTA(C551)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11935,7 +12130,7 @@
         <v>1106</v>
       </c>
       <c r="E552" t="str">
-        <f>IF(COUNTA(A552)=1,"(+ Pl.)",IF(COUNTA(C552)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11947,7 +12142,7 @@
         <v>1108</v>
       </c>
       <c r="E553" t="str">
-        <f>IF(COUNTA(A553)=1,"(+ Pl.)",IF(COUNTA(C553)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11959,7 +12154,7 @@
         <v>1110</v>
       </c>
       <c r="E554" t="str">
-        <f>IF(COUNTA(A554)=1,"(+ Pl.)",IF(COUNTA(C554)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -11974,7 +12169,7 @@
         <v>1112</v>
       </c>
       <c r="E555" t="str">
-        <f>IF(COUNTA(A555)=1,"(+ Pl.)",IF(COUNTA(C555)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -11986,7 +12181,7 @@
         <v>1114</v>
       </c>
       <c r="E556" t="str">
-        <f>IF(COUNTA(A556)=1,"(+ Pl.)",IF(COUNTA(C556)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12004,7 +12199,7 @@
         <v>1116</v>
       </c>
       <c r="E557" t="str">
-        <f>IF(COUNTA(A557)=1,"(+ Pl.)",IF(COUNTA(C557)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12016,7 +12211,7 @@
         <v>1118</v>
       </c>
       <c r="E558" t="str">
-        <f>IF(COUNTA(A558)=1,"(+ Pl.)",IF(COUNTA(C558)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12028,7 +12223,7 @@
         <v>1120</v>
       </c>
       <c r="E559" t="str">
-        <f>IF(COUNTA(A559)=1,"(+ Pl.)",IF(COUNTA(C559)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12040,7 +12235,7 @@
         <v>1122</v>
       </c>
       <c r="E560" t="str">
-        <f>IF(COUNTA(A560)=1,"(+ Pl.)",IF(COUNTA(C560)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12052,7 +12247,7 @@
         <v>1124</v>
       </c>
       <c r="E561" t="str">
-        <f>IF(COUNTA(A561)=1,"(+ Pl.)",IF(COUNTA(C561)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12064,7 +12259,7 @@
         <v>1126</v>
       </c>
       <c r="E562" t="str">
-        <f>IF(COUNTA(A562)=1,"(+ Pl.)",IF(COUNTA(C562)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12076,7 +12271,7 @@
         <v>1128</v>
       </c>
       <c r="E563" t="str">
-        <f>IF(COUNTA(A563)=1,"(+ Pl.)",IF(COUNTA(C563)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12088,7 +12283,7 @@
         <v>1130</v>
       </c>
       <c r="E564" t="str">
-        <f>IF(COUNTA(A564)=1,"(+ Pl.)",IF(COUNTA(C564)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12100,7 +12295,7 @@
         <v>1132</v>
       </c>
       <c r="E565" t="str">
-        <f>IF(COUNTA(A565)=1,"(+ Pl.)",IF(COUNTA(C565)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12112,7 +12307,7 @@
         <v>1134</v>
       </c>
       <c r="E566" t="str">
-        <f>IF(COUNTA(A566)=1,"(+ Pl.)",IF(COUNTA(C566)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12124,7 +12319,7 @@
         <v>592</v>
       </c>
       <c r="E567" t="str">
-        <f>IF(COUNTA(A567)=1,"(+ Pl.)",IF(COUNTA(C567)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12136,7 +12331,7 @@
         <v>1136</v>
       </c>
       <c r="E568" t="str">
-        <f>IF(COUNTA(A568)=1,"(+ Pl.)",IF(COUNTA(C568)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12148,7 +12343,7 @@
         <v>1138</v>
       </c>
       <c r="E569" t="str">
-        <f>IF(COUNTA(A569)=1,"(+ Pl.)",IF(COUNTA(C569)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12160,7 +12355,7 @@
         <v>1140</v>
       </c>
       <c r="E570" t="str">
-        <f>IF(COUNTA(A570)=1,"(+ Pl.)",IF(COUNTA(C570)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12172,7 +12367,7 @@
         <v>1142</v>
       </c>
       <c r="E571" t="str">
-        <f>IF(COUNTA(A571)=1,"(+ Pl.)",IF(COUNTA(C571)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12184,7 +12379,7 @@
         <v>1144</v>
       </c>
       <c r="E572" t="str">
-        <f>IF(COUNTA(A572)=1,"(+ Pl.)",IF(COUNTA(C572)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12196,7 +12391,7 @@
         <v>200</v>
       </c>
       <c r="E573" t="str">
-        <f>IF(COUNTA(A573)=1,"(+ Pl.)",IF(COUNTA(C573)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12214,7 +12409,7 @@
         <v>1145</v>
       </c>
       <c r="E574" t="str">
-        <f>IF(COUNTA(A574)=1,"(+ Pl.)",IF(COUNTA(C574)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12229,7 +12424,7 @@
         <v>1147</v>
       </c>
       <c r="E575" t="str">
-        <f>IF(COUNTA(A575)=1,"(+ Pl.)",IF(COUNTA(C575)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12241,7 +12436,7 @@
         <v>1148</v>
       </c>
       <c r="E576" t="str">
-        <f>IF(COUNTA(A576)=1,"(+ Pl.)",IF(COUNTA(C576)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12259,7 +12454,7 @@
         <v>1150</v>
       </c>
       <c r="E577" t="str">
-        <f>IF(COUNTA(A577)=1,"(+ Pl.)",IF(COUNTA(C577)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12274,7 +12469,7 @@
         <v>1152</v>
       </c>
       <c r="E578" t="str">
-        <f>IF(COUNTA(A578)=1,"(+ Pl.)",IF(COUNTA(C578)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="10"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12286,7 +12481,7 @@
         <v>1154</v>
       </c>
       <c r="E579" t="str">
-        <f>IF(COUNTA(A579)=1,"(+ Pl.)",IF(COUNTA(C579)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E579:E610" si="11">IF(COUNTA(A579)=1,"(+ Pl.)",IF(COUNTA(C579)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -12298,7 +12493,7 @@
         <v>1156</v>
       </c>
       <c r="E580" t="str">
-        <f>IF(COUNTA(A580)=1,"(+ Pl.)",IF(COUNTA(C580)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12310,7 +12505,7 @@
         <v>1158</v>
       </c>
       <c r="E581" t="str">
-        <f>IF(COUNTA(A581)=1,"(+ Pl.)",IF(COUNTA(C581)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12322,7 +12517,7 @@
         <v>1160</v>
       </c>
       <c r="E582" t="str">
-        <f>IF(COUNTA(A582)=1,"(+ Pl.)",IF(COUNTA(C582)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12334,7 +12529,7 @@
         <v>1162</v>
       </c>
       <c r="E583" t="str">
-        <f>IF(COUNTA(A583)=1,"(+ Pl.)",IF(COUNTA(C583)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12346,7 +12541,7 @@
         <v>1164</v>
       </c>
       <c r="E584" t="str">
-        <f>IF(COUNTA(A584)=1,"(+ Pl.)",IF(COUNTA(C584)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12358,7 +12553,7 @@
         <v>1166</v>
       </c>
       <c r="E585" t="str">
-        <f>IF(COUNTA(A585)=1,"(+ Pl.)",IF(COUNTA(C585)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12370,7 +12565,7 @@
         <v>1168</v>
       </c>
       <c r="E586" t="str">
-        <f>IF(COUNTA(A586)=1,"(+ Pl.)",IF(COUNTA(C586)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12382,7 +12577,7 @@
         <v>1170</v>
       </c>
       <c r="E587" t="str">
-        <f>IF(COUNTA(A587)=1,"(+ Pl.)",IF(COUNTA(C587)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12394,7 +12589,7 @@
         <v>1172</v>
       </c>
       <c r="E588" t="str">
-        <f>IF(COUNTA(A588)=1,"(+ Pl.)",IF(COUNTA(C588)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12406,7 +12601,7 @@
         <v>1174</v>
       </c>
       <c r="E589" t="str">
-        <f>IF(COUNTA(A589)=1,"(+ Pl.)",IF(COUNTA(C589)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12418,7 +12613,7 @@
         <v>1176</v>
       </c>
       <c r="E590" t="str">
-        <f>IF(COUNTA(A590)=1,"(+ Pl.)",IF(COUNTA(C590)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12430,7 +12625,7 @@
         <v>1178</v>
       </c>
       <c r="E591" t="str">
-        <f>IF(COUNTA(A591)=1,"(+ Pl.)",IF(COUNTA(C591)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12442,7 +12637,7 @@
         <v>1180</v>
       </c>
       <c r="E592" t="str">
-        <f>IF(COUNTA(A592)=1,"(+ Pl.)",IF(COUNTA(C592)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12454,7 +12649,7 @@
         <v>1182</v>
       </c>
       <c r="E593" t="str">
-        <f>IF(COUNTA(A593)=1,"(+ Pl.)",IF(COUNTA(C593)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12466,7 +12661,7 @@
         <v>1184</v>
       </c>
       <c r="E594" t="str">
-        <f>IF(COUNTA(A594)=1,"(+ Pl.)",IF(COUNTA(C594)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12478,7 +12673,7 @@
         <v>1186</v>
       </c>
       <c r="E595" t="str">
-        <f>IF(COUNTA(A595)=1,"(+ Pl.)",IF(COUNTA(C595)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12490,7 +12685,7 @@
         <v>1188</v>
       </c>
       <c r="E596" t="str">
-        <f>IF(COUNTA(A596)=1,"(+ Pl.)",IF(COUNTA(C596)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12508,7 +12703,7 @@
         <v>1191</v>
       </c>
       <c r="E597" t="str">
-        <f>IF(COUNTA(A597)=1,"(+ Pl.)",IF(COUNTA(C597)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12520,7 +12715,7 @@
         <v>901</v>
       </c>
       <c r="E598" t="str">
-        <f>IF(COUNTA(A598)=1,"(+ Pl.)",IF(COUNTA(C598)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12532,7 +12727,7 @@
         <v>1192</v>
       </c>
       <c r="E599" t="str">
-        <f>IF(COUNTA(A599)=1,"(+ Pl.)",IF(COUNTA(C599)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12544,7 +12739,7 @@
         <v>1194</v>
       </c>
       <c r="E600" t="str">
-        <f>IF(COUNTA(A600)=1,"(+ Pl.)",IF(COUNTA(C600)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12562,7 +12757,7 @@
         <v>1196</v>
       </c>
       <c r="E601" t="str">
-        <f>IF(COUNTA(A601)=1,"(+ Pl.)",IF(COUNTA(C601)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12574,7 +12769,7 @@
         <v>905</v>
       </c>
       <c r="E602" t="str">
-        <f>IF(COUNTA(A602)=1,"(+ Pl.)",IF(COUNTA(C602)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12589,7 +12784,7 @@
         <v>1198</v>
       </c>
       <c r="E603" t="str">
-        <f>IF(COUNTA(A603)=1,"(+ Pl.)",IF(COUNTA(C603)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12604,7 +12799,7 @@
         <v>1200</v>
       </c>
       <c r="E604" t="str">
-        <f>IF(COUNTA(A604)=1,"(+ Pl.)",IF(COUNTA(C604)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12616,7 +12811,7 @@
         <v>1201</v>
       </c>
       <c r="E605" t="str">
-        <f>IF(COUNTA(A605)=1,"(+ Pl.)",IF(COUNTA(C605)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12631,7 +12826,7 @@
         <v>1203</v>
       </c>
       <c r="E606" t="str">
-        <f>IF(COUNTA(A606)=1,"(+ Pl.)",IF(COUNTA(C606)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12643,7 +12838,7 @@
         <v>1205</v>
       </c>
       <c r="E607" t="str">
-        <f>IF(COUNTA(A607)=1,"(+ Pl.)",IF(COUNTA(C607)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12655,7 +12850,7 @@
         <v>1207</v>
       </c>
       <c r="E608" t="str">
-        <f>IF(COUNTA(A608)=1,"(+ Pl.)",IF(COUNTA(C608)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12667,7 +12862,7 @@
         <v>1209</v>
       </c>
       <c r="E609" t="str">
-        <f>IF(COUNTA(A609)=1,"(+ Pl.)",IF(COUNTA(C609)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12679,7 +12874,7 @@
         <v>1211</v>
       </c>
       <c r="E610" t="str">
-        <f>IF(COUNTA(A610)=1,"(+ Pl.)",IF(COUNTA(C610)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12691,7 +12886,7 @@
         <v>1213</v>
       </c>
       <c r="E611" t="str">
-        <f>IF(COUNTA(A611)=1,"(+ Pl.)",IF(COUNTA(C611)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E611:E642" si="12">IF(COUNTA(A611)=1,"(+ Pl.)",IF(COUNTA(C611)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -12703,7 +12898,7 @@
         <v>1215</v>
       </c>
       <c r="E612" t="str">
-        <f>IF(COUNTA(A612)=1,"(+ Pl.)",IF(COUNTA(C612)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12715,7 +12910,7 @@
         <v>1217</v>
       </c>
       <c r="E613" t="str">
-        <f>IF(COUNTA(A613)=1,"(+ Pl.)",IF(COUNTA(C613)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12727,7 +12922,7 @@
         <v>1219</v>
       </c>
       <c r="E614" t="str">
-        <f>IF(COUNTA(A614)=1,"(+ Pl.)",IF(COUNTA(C614)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12739,7 +12934,7 @@
         <v>1221</v>
       </c>
       <c r="E615" t="str">
-        <f>IF(COUNTA(A615)=1,"(+ Pl.)",IF(COUNTA(C615)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12751,7 +12946,7 @@
         <v>1223</v>
       </c>
       <c r="E616" t="str">
-        <f>IF(COUNTA(A616)=1,"(+ Pl.)",IF(COUNTA(C616)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12763,7 +12958,7 @@
         <v>1225</v>
       </c>
       <c r="E617" t="str">
-        <f>IF(COUNTA(A617)=1,"(+ Pl.)",IF(COUNTA(C617)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12778,7 +12973,7 @@
         <v>1227</v>
       </c>
       <c r="E618" t="str">
-        <f>IF(COUNTA(A618)=1,"(+ Pl.)",IF(COUNTA(C618)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12796,7 +12991,7 @@
         <v>1229</v>
       </c>
       <c r="E619" t="str">
-        <f>IF(COUNTA(A619)=1,"(+ Pl.)",IF(COUNTA(C619)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12808,7 +13003,7 @@
         <v>1231</v>
       </c>
       <c r="E620" t="str">
-        <f>IF(COUNTA(A620)=1,"(+ Pl.)",IF(COUNTA(C620)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12823,7 +13018,7 @@
         <v>1233</v>
       </c>
       <c r="E621" t="str">
-        <f>IF(COUNTA(A621)=1,"(+ Pl.)",IF(COUNTA(C621)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12835,7 +13030,7 @@
         <v>1235</v>
       </c>
       <c r="E622" t="str">
-        <f>IF(COUNTA(A622)=1,"(+ Pl.)",IF(COUNTA(C622)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12853,7 +13048,7 @@
         <v>1237</v>
       </c>
       <c r="E623" t="str">
-        <f>IF(COUNTA(A623)=1,"(+ Pl.)",IF(COUNTA(C623)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12868,7 +13063,7 @@
         <v>1239</v>
       </c>
       <c r="E624" t="str">
-        <f>IF(COUNTA(A624)=1,"(+ Pl.)",IF(COUNTA(C624)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12886,7 +13081,7 @@
         <v>1241</v>
       </c>
       <c r="E625" t="str">
-        <f>IF(COUNTA(A625)=1,"(+ Pl.)",IF(COUNTA(C625)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12898,7 +13093,7 @@
         <v>1243</v>
       </c>
       <c r="E626" t="str">
-        <f>IF(COUNTA(A626)=1,"(+ Pl.)",IF(COUNTA(C626)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12910,7 +13105,7 @@
         <v>1245</v>
       </c>
       <c r="E627" t="str">
-        <f>IF(COUNTA(A627)=1,"(+ Pl.)",IF(COUNTA(C627)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12923,7 +13118,7 @@
         <v>1247</v>
       </c>
       <c r="E628" t="str">
-        <f>IF(COUNTA(A628)=1,"(+ Pl.)",IF(COUNTA(C628)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12935,7 +13130,7 @@
         <v>1249</v>
       </c>
       <c r="E629" t="str">
-        <f>IF(COUNTA(A629)=1,"(+ Pl.)",IF(COUNTA(C629)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12947,7 +13142,7 @@
         <v>1251</v>
       </c>
       <c r="E630" t="str">
-        <f>IF(COUNTA(A630)=1,"(+ Pl.)",IF(COUNTA(C630)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12965,7 +13160,7 @@
         <v>1253</v>
       </c>
       <c r="E631" t="str">
-        <f>IF(COUNTA(A631)=1,"(+ Pl.)",IF(COUNTA(C631)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -12977,7 +13172,7 @@
         <v>1255</v>
       </c>
       <c r="E632" t="str">
-        <f>IF(COUNTA(A632)=1,"(+ Pl.)",IF(COUNTA(C632)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12995,7 +13190,7 @@
         <v>1257</v>
       </c>
       <c r="E633" t="str">
-        <f>IF(COUNTA(A633)=1,"(+ Pl.)",IF(COUNTA(C633)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -13010,7 +13205,7 @@
         <v>1259</v>
       </c>
       <c r="E634" t="str">
-        <f>IF(COUNTA(A634)=1,"(+ Pl.)",IF(COUNTA(C634)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -13022,7 +13217,7 @@
         <v>1261</v>
       </c>
       <c r="E635" t="str">
-        <f>IF(COUNTA(A635)=1,"(+ Pl.)",IF(COUNTA(C635)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13040,7 +13235,7 @@
         <v>1263</v>
       </c>
       <c r="E636" t="str">
-        <f>IF(COUNTA(A636)=1,"(+ Pl.)",IF(COUNTA(C636)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -13052,7 +13247,7 @@
         <v>1265</v>
       </c>
       <c r="E637" t="str">
-        <f>IF(COUNTA(A637)=1,"(+ Pl.)",IF(COUNTA(C637)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13064,7 +13259,7 @@
         <v>1267</v>
       </c>
       <c r="E638" t="str">
-        <f>IF(COUNTA(A638)=1,"(+ Pl.)",IF(COUNTA(C638)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13079,7 +13274,7 @@
         <v>1269</v>
       </c>
       <c r="E639" t="str">
-        <f>IF(COUNTA(A639)=1,"(+ Pl.)",IF(COUNTA(C639)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -13091,7 +13286,7 @@
         <v>1271</v>
       </c>
       <c r="E640" t="str">
-        <f>IF(COUNTA(A640)=1,"(+ Pl.)",IF(COUNTA(C640)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13103,7 +13298,7 @@
         <v>1273</v>
       </c>
       <c r="E641" t="str">
-        <f>IF(COUNTA(A641)=1,"(+ Pl.)",IF(COUNTA(C641)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13115,7 +13310,7 @@
         <v>1275</v>
       </c>
       <c r="E642" t="str">
-        <f>IF(COUNTA(A642)=1,"(+ Pl.)",IF(COUNTA(C642)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13127,7 +13322,7 @@
         <v>1277</v>
       </c>
       <c r="E643" t="str">
-        <f>IF(COUNTA(A643)=1,"(+ Pl.)",IF(COUNTA(C643)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" ref="E643:E659" si="13">IF(COUNTA(A643)=1,"(+ Pl.)",IF(COUNTA(C643)=1,"(+ präteritum, p. II)",""))</f>
         <v/>
       </c>
     </row>
@@ -13139,7 +13334,7 @@
         <v>1279</v>
       </c>
       <c r="E644" t="str">
-        <f>IF(COUNTA(A644)=1,"(+ Pl.)",IF(COUNTA(C644)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13151,7 +13346,7 @@
         <v>1281</v>
       </c>
       <c r="E645" t="str">
-        <f>IF(COUNTA(A645)=1,"(+ Pl.)",IF(COUNTA(C645)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13163,7 +13358,7 @@
         <v>1283</v>
       </c>
       <c r="E646" t="str">
-        <f>IF(COUNTA(A646)=1,"(+ Pl.)",IF(COUNTA(C646)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13175,7 +13370,7 @@
         <v>1285</v>
       </c>
       <c r="E647" t="str">
-        <f>IF(COUNTA(A647)=1,"(+ Pl.)",IF(COUNTA(C647)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13187,7 +13382,7 @@
         <v>75</v>
       </c>
       <c r="E648" t="str">
-        <f>IF(COUNTA(A648)=1,"(+ Pl.)",IF(COUNTA(C648)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13199,7 +13394,7 @@
         <v>1287</v>
       </c>
       <c r="E649" t="str">
-        <f>IF(COUNTA(A649)=1,"(+ Pl.)",IF(COUNTA(C649)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13214,7 +13409,7 @@
         <v>1289</v>
       </c>
       <c r="E650" t="str">
-        <f>IF(COUNTA(A650)=1,"(+ Pl.)",IF(COUNTA(C650)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -13226,7 +13421,7 @@
         <v>1291</v>
       </c>
       <c r="E651" t="str">
-        <f>IF(COUNTA(A651)=1,"(+ Pl.)",IF(COUNTA(C651)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13238,7 +13433,7 @@
         <v>1293</v>
       </c>
       <c r="E652" t="str">
-        <f>IF(COUNTA(A652)=1,"(+ Pl.)",IF(COUNTA(C652)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13250,7 +13445,7 @@
         <v>1295</v>
       </c>
       <c r="E653" t="str">
-        <f>IF(COUNTA(A653)=1,"(+ Pl.)",IF(COUNTA(C653)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13262,7 +13457,7 @@
         <v>1297</v>
       </c>
       <c r="E654" t="str">
-        <f>IF(COUNTA(A654)=1,"(+ Pl.)",IF(COUNTA(C654)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13274,7 +13469,7 @@
         <v>1299</v>
       </c>
       <c r="E655" t="str">
-        <f>IF(COUNTA(A655)=1,"(+ Pl.)",IF(COUNTA(C655)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13292,7 +13487,7 @@
         <v>1301</v>
       </c>
       <c r="E656" t="str">
-        <f>IF(COUNTA(A656)=1,"(+ Pl.)",IF(COUNTA(C656)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
@@ -13304,7 +13499,7 @@
         <v>1302</v>
       </c>
       <c r="E657" t="str">
-        <f>IF(COUNTA(A657)=1,"(+ Pl.)",IF(COUNTA(C657)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13316,7 +13511,7 @@
         <v>1304</v>
       </c>
       <c r="E658" t="str">
-        <f>IF(COUNTA(A658)=1,"(+ Pl.)",IF(COUNTA(C658)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13334,7 +13529,7 @@
         <v>1307</v>
       </c>
       <c r="E659" t="str">
-        <f>IF(COUNTA(A659)=1,"(+ Pl.)",IF(COUNTA(C659)=1,"(+ präteritum, p. II)",""))</f>
+        <f t="shared" si="13"/>
         <v>(+ Pl.)</v>
       </c>
     </row>
